--- a/excel/multifactor_zscores_12-04-2021.xlsx
+++ b/excel/multifactor_zscores_12-04-2021.xlsx
@@ -607,15 +607,15 @@
     <t>IP</t>
   </si>
   <si>
+    <t>CTLT</t>
+  </si>
+  <si>
     <t>FFIV</t>
   </si>
   <si>
     <t>ETN</t>
   </si>
   <si>
-    <t>CTLT</t>
-  </si>
-  <si>
     <t>UAA</t>
   </si>
   <si>
@@ -628,39 +628,39 @@
     <t>VIAC</t>
   </si>
   <si>
+    <t>MHK</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>BXP</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>WDC</t>
+  </si>
+  <si>
+    <t>PKG</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>BRO</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
     <t>OXY</t>
   </si>
   <si>
-    <t>MHK</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>BXP</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>PKG</t>
-  </si>
-  <si>
-    <t>WDC</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>FRC</t>
-  </si>
-  <si>
-    <t>DUK</t>
-  </si>
-  <si>
     <t>HSIC</t>
   </si>
   <si>
@@ -670,72 +670,72 @@
     <t>J</t>
   </si>
   <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>CTRA</t>
+  </si>
+  <si>
     <t>GM</t>
   </si>
   <si>
-    <t>FAST</t>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>UA</t>
   </si>
   <si>
     <t>GIS</t>
   </si>
   <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>CMCSA</t>
+    <t>UDR</t>
   </si>
   <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>UDR</t>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>SNA</t>
   </si>
   <si>
     <t>BAC</t>
   </si>
   <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>SNA</t>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>TRMB</t>
   </si>
   <si>
     <t>PPG</t>
   </si>
   <si>
-    <t>TRMB</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
-    <t>TXN</t>
-  </si>
-  <si>
-    <t>AIG</t>
-  </si>
-  <si>
-    <t>CTRA</t>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>DRI</t>
   </si>
   <si>
     <t>DLTR</t>
   </si>
   <si>
-    <t>SJM</t>
-  </si>
-  <si>
-    <t>DRI</t>
-  </si>
-  <si>
     <t>LYV</t>
   </si>
   <si>
-    <t>ITW</t>
-  </si>
-  <si>
-    <t>HUM</t>
-  </si>
-  <si>
     <t>EQR</t>
   </si>
   <si>
@@ -745,70 +745,73 @@
     <t>DHR</t>
   </si>
   <si>
+    <t>ETR</t>
+  </si>
+  <si>
     <t>SCHW</t>
   </si>
   <si>
+    <t>CMI</t>
+  </si>
+  <si>
     <t>INTU</t>
   </si>
   <si>
     <t>PAYX</t>
   </si>
   <si>
-    <t>CMI</t>
-  </si>
-  <si>
     <t>ALB</t>
   </si>
   <si>
     <t>HII</t>
   </si>
   <si>
-    <t>ETR</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>HBI</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
-    <t>HBI</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
     <t>DXC</t>
   </si>
   <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
     <t>AVB</t>
   </si>
   <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>CNC</t>
+    <t>CVX</t>
   </si>
   <si>
     <t>DISH</t>
   </si>
   <si>
-    <t>CVX</t>
+    <t>MU</t>
   </si>
   <si>
     <t>EMR</t>
   </si>
   <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>ALLE</t>
+  </si>
+  <si>
     <t>NDAQ</t>
   </si>
   <si>
-    <t>TJX</t>
-  </si>
-  <si>
-    <t>ALLE</t>
-  </si>
-  <si>
-    <t>MU</t>
+    <t>CAH</t>
   </si>
   <si>
     <t>WMT</t>
@@ -817,34 +820,37 @@
     <t>AEP</t>
   </si>
   <si>
-    <t>CAH</t>
-  </si>
-  <si>
     <t>AMCR</t>
   </si>
   <si>
+    <t>PH</t>
+  </si>
+  <si>
     <t>BR</t>
   </si>
   <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>AON</t>
   </si>
   <si>
+    <t>SWKS</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
     <t>EBAY</t>
   </si>
   <si>
-    <t>VLO</t>
-  </si>
-  <si>
-    <t>AMT</t>
-  </si>
-  <si>
-    <t>SWKS</t>
-  </si>
-  <si>
-    <t>WRB</t>
+    <t>NFLX</t>
   </si>
   <si>
     <t>UHS</t>
@@ -856,10 +862,7 @@
     <t>RL</t>
   </si>
   <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>NFLX</t>
+    <t>SWK</t>
   </si>
   <si>
     <t>CI</t>
@@ -868,321 +871,318 @@
     <t>SYY</t>
   </si>
   <si>
-    <t>SWK</t>
-  </si>
-  <si>
     <t>AVGO</t>
   </si>
   <si>
+    <t>IVZ</t>
+  </si>
+  <si>
+    <t>CTVA</t>
+  </si>
+  <si>
     <t>XEL</t>
   </si>
   <si>
-    <t>CTVA</t>
-  </si>
-  <si>
-    <t>IVZ</t>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>DVA</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>IBM</t>
   </si>
   <si>
     <t>HWM</t>
   </si>
   <si>
-    <t>DVA</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>CCI</t>
-  </si>
-  <si>
-    <t>CAT</t>
+    <t>APTV</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>CHD</t>
   </si>
   <si>
     <t>CHTR</t>
   </si>
   <si>
-    <t>CHD</t>
-  </si>
-  <si>
-    <t>PNC</t>
-  </si>
-  <si>
-    <t>APTV</t>
-  </si>
-  <si>
-    <t>BAX</t>
-  </si>
-  <si>
-    <t>CFG</t>
+    <t>WU</t>
   </si>
   <si>
     <t>CTSH</t>
   </si>
   <si>
+    <t>SO</t>
+  </si>
+  <si>
     <t>DG</t>
   </si>
   <si>
+    <t>MLM</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>NWL</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
     <t>SLB</t>
   </si>
   <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>WU</t>
-  </si>
-  <si>
-    <t>MLM</t>
-  </si>
-  <si>
-    <t>EW</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>WAB</t>
-  </si>
-  <si>
-    <t>NWL</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ESS</t>
-  </si>
-  <si>
-    <t>MDLZ</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>GLW</t>
   </si>
   <si>
+    <t>CTAS</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
     <t>BK</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>LEG</t>
+  </si>
+  <si>
+    <t>ROST</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>SNPS</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
     <t>NKE</t>
   </si>
   <si>
-    <t>CTAS</t>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>QRVO</t>
+  </si>
+  <si>
+    <t>DISCK</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>XYL</t>
+  </si>
+  <si>
+    <t>SBAC</t>
   </si>
   <si>
     <t>LNT</t>
   </si>
   <si>
-    <t>BSX</t>
-  </si>
-  <si>
-    <t>PCAR</t>
-  </si>
-  <si>
-    <t>KHC</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>QRVO</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>STE</t>
-  </si>
-  <si>
-    <t>LEG</t>
-  </si>
-  <si>
-    <t>ROST</t>
-  </si>
-  <si>
-    <t>XYL</t>
-  </si>
-  <si>
-    <t>DISCK</t>
-  </si>
-  <si>
-    <t>BLK</t>
+    <t>BLL</t>
   </si>
   <si>
     <t>NLSN</t>
   </si>
   <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>EMN</t>
+  </si>
+  <si>
+    <t>WRK</t>
+  </si>
+  <si>
     <t>TDY</t>
   </si>
   <si>
-    <t>DLR</t>
-  </si>
-  <si>
-    <t>SBAC</t>
-  </si>
-  <si>
-    <t>BIIB</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>BLL</t>
-  </si>
-  <si>
-    <t>WRK</t>
-  </si>
-  <si>
-    <t>EMN</t>
+    <t>L</t>
   </si>
   <si>
     <t>PVH</t>
   </si>
   <si>
-    <t>L</t>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>ENPH</t>
+  </si>
+  <si>
+    <t>MCHP</t>
+  </si>
+  <si>
+    <t>NTRS</t>
   </si>
   <si>
     <t>BIO</t>
   </si>
   <si>
-    <t>ENPH</t>
-  </si>
-  <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>NTRS</t>
-  </si>
-  <si>
-    <t>MCHP</t>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>MRK</t>
   </si>
   <si>
     <t>IR</t>
   </si>
   <si>
+    <t>CZR</t>
+  </si>
+  <si>
     <t>TTWO</t>
   </si>
   <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>CZR</t>
-  </si>
-  <si>
     <t>JKHY</t>
   </si>
   <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
     <t>LDOS</t>
   </si>
   <si>
+    <t>PEG</t>
+  </si>
+  <si>
     <t>USB</t>
   </si>
   <si>
-    <t>PEG</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>JPM</t>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>HRL</t>
   </si>
   <si>
     <t>AKAM</t>
   </si>
   <si>
-    <t>DRE</t>
-  </si>
-  <si>
-    <t>HRL</t>
+    <t>DISCA</t>
+  </si>
+  <si>
+    <t>BDX</t>
   </si>
   <si>
     <t>HAS</t>
   </si>
   <si>
-    <t>BDX</t>
+    <t>CERN</t>
   </si>
   <si>
     <t>LHX</t>
   </si>
   <si>
-    <t>CERN</t>
-  </si>
-  <si>
     <t>PXD</t>
   </si>
   <si>
+    <t>XLNX</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
     <t>VMC</t>
   </si>
   <si>
-    <t>XLNX</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>MTB</t>
-  </si>
-  <si>
-    <t>AME</t>
+    <t>XRAY</t>
   </si>
   <si>
     <t>VTR</t>
   </si>
   <si>
-    <t>XRAY</t>
-  </si>
-  <si>
     <t>GRMN</t>
   </si>
   <si>
+    <t>GPS</t>
+  </si>
+  <si>
     <t>CPB</t>
   </si>
   <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>PBCT</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>ALGN</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>MPWR</t>
+  </si>
+  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>DISCA</t>
-  </si>
-  <si>
-    <t>ATO</t>
-  </si>
-  <si>
-    <t>PBCT</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>CSX</t>
-  </si>
-  <si>
-    <t>ALGN</t>
-  </si>
-  <si>
-    <t>PPL</t>
-  </si>
-  <si>
-    <t>MPWR</t>
-  </si>
-  <si>
     <t>IEX</t>
   </si>
   <si>
@@ -1192,82 +1192,85 @@
     <t>NSC</t>
   </si>
   <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>RMD</t>
+  </si>
+  <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>RMD</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
-    <t>TAP</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
+    <t>EQIX</t>
+  </si>
+  <si>
     <t>ADSK</t>
   </si>
   <si>
-    <t>EQIX</t>
-  </si>
-  <si>
     <t>AMGN</t>
   </si>
   <si>
+    <t>ALK</t>
+  </si>
+  <si>
     <t>AAL</t>
   </si>
   <si>
     <t>ADI</t>
   </si>
   <si>
-    <t>ALK</t>
+    <t>TMUS</t>
   </si>
   <si>
     <t>SYK</t>
   </si>
   <si>
+    <t>EXPE</t>
+  </si>
+  <si>
     <t>TRV</t>
   </si>
   <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>EXPE</t>
-  </si>
-  <si>
     <t>CBOE</t>
   </si>
   <si>
     <t>CLX</t>
   </si>
   <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>PSX</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>WEC</t>
+  </si>
+  <si>
+    <t>VNO</t>
+  </si>
+  <si>
     <t>CPRT</t>
   </si>
   <si>
-    <t>CMG</t>
-  </si>
-  <si>
     <t>ADBE</t>
   </si>
   <si>
-    <t>VNO</t>
-  </si>
-  <si>
-    <t>FMC</t>
-  </si>
-  <si>
-    <t>WEC</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
-    <t>HES</t>
+    <t>FISV</t>
   </si>
   <si>
     <t>TFC</t>
@@ -1276,51 +1279,51 @@
     <t>VRTX</t>
   </si>
   <si>
-    <t>FISV</t>
+    <t>MNST</t>
+  </si>
+  <si>
+    <t>VFC</t>
+  </si>
+  <si>
+    <t>MDT</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>MNST</t>
-  </si>
-  <si>
-    <t>VFC</t>
-  </si>
-  <si>
     <t>CRM</t>
   </si>
   <si>
     <t>LUV</t>
   </si>
   <si>
-    <t>MDT</t>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>MSCI</t>
   </si>
   <si>
     <t>IFF</t>
   </si>
   <si>
-    <t>MSCI</t>
-  </si>
-  <si>
-    <t>SRE</t>
-  </si>
-  <si>
     <t>FDX</t>
   </si>
   <si>
+    <t>CTXS</t>
+  </si>
+  <si>
     <t>PEAK</t>
   </si>
   <si>
     <t>HLT</t>
   </si>
   <si>
-    <t>CTXS</t>
-  </si>
-  <si>
     <t>HBAN</t>
   </si>
   <si>
+    <t>FLT</t>
+  </si>
+  <si>
     <t>INCY</t>
   </si>
   <si>
@@ -1330,234 +1333,231 @@
     <t>ROL</t>
   </si>
   <si>
+    <t>UNP</t>
+  </si>
+  <si>
     <t>MCD</t>
   </si>
   <si>
-    <t>UNP</t>
-  </si>
-  <si>
     <t>MKC</t>
   </si>
   <si>
-    <t>FLT</t>
-  </si>
-  <si>
     <t>TYL</t>
   </si>
   <si>
+    <t>DIS</t>
+  </si>
+  <si>
     <t>WLTW</t>
   </si>
   <si>
-    <t>DIS</t>
+    <t>KMI</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>DXCM</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>LIN</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>HON</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>ETSY</t>
-  </si>
-  <si>
-    <t>DXCM</t>
-  </si>
-  <si>
-    <t>KMI</t>
-  </si>
-  <si>
     <t>TSLA</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>IPGP</t>
+  </si>
+  <si>
     <t>PYPL</t>
   </si>
   <si>
-    <t>C</t>
+    <t>ZBH</t>
   </si>
   <si>
     <t>STZ</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>IPGP</t>
-  </si>
-  <si>
-    <t>ZBH</t>
-  </si>
-  <si>
     <t>KSU</t>
   </si>
   <si>
+    <t>PENN</t>
+  </si>
+  <si>
+    <t>FTV</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>MTCH</t>
+  </si>
+  <si>
     <t>PNW</t>
   </si>
   <si>
-    <t>FTV</t>
-  </si>
-  <si>
-    <t>MTCH</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>PENN</t>
-  </si>
-  <si>
     <t>PRU</t>
   </si>
   <si>
-    <t>MCK</t>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>BKR</t>
+  </si>
+  <si>
+    <t>PLD</t>
   </si>
   <si>
     <t>UAL</t>
   </si>
   <si>
-    <t>BKR</t>
-  </si>
-  <si>
-    <t>PLD</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
     <t>BMY</t>
   </si>
   <si>
+    <t>FIS</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
-    <t>FIS</t>
-  </si>
-  <si>
     <t>GL</t>
   </si>
   <si>
+    <t>WYNN</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
     <t>TFX</t>
   </si>
   <si>
-    <t>WYNN</t>
-  </si>
-  <si>
-    <t>TDG</t>
-  </si>
-  <si>
-    <t>GPN</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
     <t>DAL</t>
   </si>
   <si>
+    <t>ATVI</t>
+  </si>
+  <si>
     <t>ECL</t>
   </si>
   <si>
-    <t>ATVI</t>
+    <t>V</t>
   </si>
   <si>
     <t>NEE</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>ARE</t>
   </si>
   <si>
+    <t>CCL</t>
+  </si>
+  <si>
     <t>LW</t>
   </si>
   <si>
     <t>AIZ</t>
   </si>
   <si>
+    <t>RCL</t>
+  </si>
+  <si>
     <t>VTRS</t>
   </si>
   <si>
-    <t>RCL</t>
-  </si>
-  <si>
-    <t>CCL</t>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
   <si>
     <t>ABMD</t>
   </si>
   <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <t>ALL</t>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>ANSS</t>
   </si>
   <si>
     <t>WMB</t>
   </si>
   <si>
-    <t>ANSS</t>
-  </si>
-  <si>
-    <t>ROP</t>
+    <t>AWK</t>
+  </si>
+  <si>
+    <t>CDAY</t>
   </si>
   <si>
     <t>APD</t>
   </si>
   <si>
-    <t>AWK</t>
-  </si>
-  <si>
-    <t>CDAY</t>
-  </si>
-  <si>
     <t>TWTR</t>
   </si>
   <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>BF/B</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
     <t>NCLH</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>HST</t>
-  </si>
-  <si>
-    <t>ISRG</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>BF/B</t>
-  </si>
-  <si>
-    <t>CME</t>
-  </si>
-  <si>
     <t>ILMN</t>
   </si>
   <si>
+    <t>LVS</t>
+  </si>
+  <si>
     <t>MKTX</t>
   </si>
   <si>
-    <t>LVS</t>
+    <t>PAYC</t>
   </si>
   <si>
     <t>VRSK</t>
   </si>
   <si>
-    <t>PAYC</t>
-  </si>
-  <si>
     <t>HP Inc</t>
   </si>
   <si>
@@ -2113,15 +2113,15 @@
     <t>International Paper Co</t>
   </si>
   <si>
+    <t>Catalent Inc</t>
+  </si>
+  <si>
     <t>F5 Inc</t>
   </si>
   <si>
     <t>Eaton Corp PLC</t>
   </si>
   <si>
-    <t>Catalent Inc</t>
-  </si>
-  <si>
     <t>Under Armour Inc</t>
   </si>
   <si>
@@ -2134,39 +2134,39 @@
     <t>ViacomCBS Inc</t>
   </si>
   <si>
+    <t>Mohawk Industries Inc</t>
+  </si>
+  <si>
+    <t>Kellogg Co</t>
+  </si>
+  <si>
+    <t>Boston Properties Inc</t>
+  </si>
+  <si>
+    <t>Republic Services Inc</t>
+  </si>
+  <si>
+    <t>Western Digital Corp</t>
+  </si>
+  <si>
+    <t>Packaging Corp of America</t>
+  </si>
+  <si>
+    <t>Amphenol Corp</t>
+  </si>
+  <si>
+    <t>Brown &amp; Brown Inc</t>
+  </si>
+  <si>
+    <t>First Republic Bank/CA</t>
+  </si>
+  <si>
+    <t>Duke Energy Corp</t>
+  </si>
+  <si>
     <t>Occidental Petroleum Corp</t>
   </si>
   <si>
-    <t>Mohawk Industries Inc</t>
-  </si>
-  <si>
-    <t>Kellogg Co</t>
-  </si>
-  <si>
-    <t>Boston Properties Inc</t>
-  </si>
-  <si>
-    <t>Republic Services Inc</t>
-  </si>
-  <si>
-    <t>Packaging Corp of America</t>
-  </si>
-  <si>
-    <t>Western Digital Corp</t>
-  </si>
-  <si>
-    <t>Amphenol Corp</t>
-  </si>
-  <si>
-    <t>Brown &amp; Brown Inc</t>
-  </si>
-  <si>
-    <t>First Republic Bank/CA</t>
-  </si>
-  <si>
-    <t>Duke Energy Corp</t>
-  </si>
-  <si>
     <t>Henry Schein Inc</t>
   </si>
   <si>
@@ -2176,69 +2176,69 @@
     <t>Jacobs Engineering Group Inc</t>
   </si>
   <si>
+    <t>Fastenal Co</t>
+  </si>
+  <si>
+    <t>Coterra Energy Inc</t>
+  </si>
+  <si>
     <t>General Motors Co</t>
   </si>
   <si>
-    <t>Fastenal Co</t>
+    <t>Comcast Corp</t>
   </si>
   <si>
     <t>General Mills Inc</t>
   </si>
   <si>
-    <t>Comcast Corp</t>
+    <t>UDR Inc</t>
   </si>
   <si>
     <t>NVIDIA Corp</t>
   </si>
   <si>
-    <t>UDR Inc</t>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Snap-on Inc</t>
   </si>
   <si>
     <t>Bank of America Corp</t>
   </si>
   <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
-    <t>Snap-on Inc</t>
+    <t>CMS Energy Corp</t>
+  </si>
+  <si>
+    <t>American International Group Inc</t>
+  </si>
+  <si>
+    <t>Texas Instruments Inc</t>
+  </si>
+  <si>
+    <t>Trimble Inc</t>
   </si>
   <si>
     <t>PPG Industries Inc</t>
   </si>
   <si>
-    <t>Trimble Inc</t>
-  </si>
-  <si>
-    <t>CMS Energy Corp</t>
-  </si>
-  <si>
-    <t>Texas Instruments Inc</t>
-  </si>
-  <si>
-    <t>American International Group Inc</t>
-  </si>
-  <si>
-    <t>Coterra Energy Inc</t>
+    <t>Illinois Tool Works Inc</t>
+  </si>
+  <si>
+    <t>Humana Inc</t>
+  </si>
+  <si>
+    <t>J M Smucker Co/The</t>
+  </si>
+  <si>
+    <t>Darden Restaurants Inc</t>
   </si>
   <si>
     <t>Dollar Tree Inc</t>
   </si>
   <si>
-    <t>J M Smucker Co/The</t>
-  </si>
-  <si>
-    <t>Darden Restaurants Inc</t>
-  </si>
-  <si>
     <t>Live Nation Entertainment Inc</t>
   </si>
   <si>
-    <t>Illinois Tool Works Inc</t>
-  </si>
-  <si>
-    <t>Humana Inc</t>
-  </si>
-  <si>
     <t>Equity Residential</t>
   </si>
   <si>
@@ -2248,70 +2248,73 @@
     <t>Danaher Corp</t>
   </si>
   <si>
+    <t>Entergy Corp</t>
+  </si>
+  <si>
     <t>Charles Schwab Corp/The</t>
   </si>
   <si>
+    <t>Cummins Inc</t>
+  </si>
+  <si>
     <t>Intuit Inc</t>
   </si>
   <si>
     <t>Paychex Inc</t>
   </si>
   <si>
-    <t>Cummins Inc</t>
-  </si>
-  <si>
     <t>Albemarle Corp</t>
   </si>
   <si>
     <t>Huntington Ingalls Industries Inc</t>
   </si>
   <si>
-    <t>Entergy Corp</t>
-  </si>
-  <si>
     <t>Procter &amp; Gamble Co/The</t>
   </si>
   <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>Hanesbrands Inc</t>
+  </si>
+  <si>
     <t>BorgWarner Inc</t>
   </si>
   <si>
-    <t>Hanesbrands Inc</t>
-  </si>
-  <si>
-    <t>Abbott Laboratories</t>
-  </si>
-  <si>
     <t>DXC Technology Co</t>
   </si>
   <si>
+    <t>Centene Corp</t>
+  </si>
+  <si>
+    <t>Moody's Corp</t>
+  </si>
+  <si>
     <t>AvalonBay Communities Inc</t>
   </si>
   <si>
-    <t>Moody's Corp</t>
-  </si>
-  <si>
-    <t>Centene Corp</t>
+    <t>Chevron Corp</t>
   </si>
   <si>
     <t>DISH Network Corp</t>
   </si>
   <si>
-    <t>Chevron Corp</t>
+    <t>Micron Technology Inc</t>
   </si>
   <si>
     <t>Emerson Electric Co</t>
   </si>
   <si>
+    <t>TJX Cos Inc/The</t>
+  </si>
+  <si>
+    <t>Allegion plc</t>
+  </si>
+  <si>
     <t>Nasdaq Inc</t>
   </si>
   <si>
-    <t>TJX Cos Inc/The</t>
-  </si>
-  <si>
-    <t>Allegion plc</t>
-  </si>
-  <si>
-    <t>Micron Technology Inc</t>
+    <t>Cardinal Health Inc</t>
   </si>
   <si>
     <t>Walmart Inc</t>
@@ -2320,34 +2323,37 @@
     <t>American Electric Power Co Inc</t>
   </si>
   <si>
-    <t>Cardinal Health Inc</t>
-  </si>
-  <si>
     <t>Amcor PLC</t>
   </si>
   <si>
+    <t>Parker-Hannifin Corp</t>
+  </si>
+  <si>
     <t>Broadridge Financial Solutions Inc</t>
   </si>
   <si>
-    <t>Parker-Hannifin Corp</t>
-  </si>
-  <si>
     <t>Aon PLC</t>
   </si>
   <si>
+    <t>Skyworks Solutions Inc</t>
+  </si>
+  <si>
+    <t>W R Berkley Corp</t>
+  </si>
+  <si>
+    <t>American Tower Corp</t>
+  </si>
+  <si>
+    <t>3M Co</t>
+  </si>
+  <si>
+    <t>Valero Energy Corp</t>
+  </si>
+  <si>
     <t>eBay Inc</t>
   </si>
   <si>
-    <t>Valero Energy Corp</t>
-  </si>
-  <si>
-    <t>American Tower Corp</t>
-  </si>
-  <si>
-    <t>Skyworks Solutions Inc</t>
-  </si>
-  <si>
-    <t>W R Berkley Corp</t>
+    <t>Netflix Inc</t>
   </si>
   <si>
     <t>Universal Health Services Inc</t>
@@ -2359,10 +2365,7 @@
     <t>Ralph Lauren Corp</t>
   </si>
   <si>
-    <t>3M Co</t>
-  </si>
-  <si>
-    <t>Netflix Inc</t>
+    <t>Stanley Black &amp; Decker Inc</t>
   </si>
   <si>
     <t>Cigna Corp</t>
@@ -2371,318 +2374,315 @@
     <t>Sysco Corp</t>
   </si>
   <si>
-    <t>Stanley Black &amp; Decker Inc</t>
-  </si>
-  <si>
     <t>Broadcom Inc</t>
   </si>
   <si>
+    <t>Invesco Ltd</t>
+  </si>
+  <si>
+    <t>Corteva Inc</t>
+  </si>
+  <si>
     <t>Xcel Energy Inc</t>
   </si>
   <si>
-    <t>Corteva Inc</t>
-  </si>
-  <si>
-    <t>Invesco Ltd</t>
+    <t>Crown Castle International Corp</t>
+  </si>
+  <si>
+    <t>DaVita Inc</t>
+  </si>
+  <si>
+    <t>Caterpillar Inc</t>
+  </si>
+  <si>
+    <t>International Business Machines Corp</t>
   </si>
   <si>
     <t>Howmet Aerospace Inc</t>
   </si>
   <si>
-    <t>DaVita Inc</t>
-  </si>
-  <si>
-    <t>International Business Machines Corp</t>
-  </si>
-  <si>
-    <t>Crown Castle International Corp</t>
-  </si>
-  <si>
-    <t>Caterpillar Inc</t>
+    <t>Aptiv PLC</t>
+  </si>
+  <si>
+    <t>PNC Financial Services Group Inc/The</t>
+  </si>
+  <si>
+    <t>Baxter International Inc</t>
+  </si>
+  <si>
+    <t>Citizens Financial Group Inc</t>
+  </si>
+  <si>
+    <t>Church &amp; Dwight Co Inc</t>
   </si>
   <si>
     <t>Charter Communications Inc</t>
   </si>
   <si>
-    <t>Church &amp; Dwight Co Inc</t>
-  </si>
-  <si>
-    <t>PNC Financial Services Group Inc/The</t>
-  </si>
-  <si>
-    <t>Aptiv PLC</t>
-  </si>
-  <si>
-    <t>Baxter International Inc</t>
-  </si>
-  <si>
-    <t>Citizens Financial Group Inc</t>
+    <t>Western Union Co/The</t>
   </si>
   <si>
     <t>Cognizant Technology Solutions Corp</t>
   </si>
   <si>
+    <t>Southern Co/The</t>
+  </si>
+  <si>
     <t>Dollar General Corp</t>
   </si>
   <si>
+    <t>Martin Marietta Materials Inc</t>
+  </si>
+  <si>
+    <t>Westinghouse Air Brake Technologies Corp</t>
+  </si>
+  <si>
+    <t>Edwards Lifesciences Corp</t>
+  </si>
+  <si>
+    <t>American Express Co</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc</t>
+  </si>
+  <si>
+    <t>Newell Brands Inc</t>
+  </si>
+  <si>
+    <t>Zoetis Inc</t>
+  </si>
+  <si>
+    <t>Intel Corp</t>
+  </si>
+  <si>
+    <t>Essex Property Trust Inc</t>
+  </si>
+  <si>
+    <t>Mondelez International Inc</t>
+  </si>
+  <si>
+    <t>General Electric Co</t>
+  </si>
+  <si>
     <t>Schlumberger NV</t>
   </si>
   <si>
-    <t>Southern Co/The</t>
-  </si>
-  <si>
-    <t>Western Union Co/The</t>
-  </si>
-  <si>
-    <t>Martin Marietta Materials Inc</t>
-  </si>
-  <si>
-    <t>Edwards Lifesciences Corp</t>
-  </si>
-  <si>
-    <t>American Express Co</t>
-  </si>
-  <si>
-    <t>Westinghouse Air Brake Technologies Corp</t>
-  </si>
-  <si>
-    <t>Newell Brands Inc</t>
-  </si>
-  <si>
-    <t>Verizon Communications Inc</t>
-  </si>
-  <si>
-    <t>Zoetis Inc</t>
-  </si>
-  <si>
-    <t>Intel Corp</t>
-  </si>
-  <si>
-    <t>Essex Property Trust Inc</t>
-  </si>
-  <si>
-    <t>Mondelez International Inc</t>
-  </si>
-  <si>
-    <t>General Electric Co</t>
-  </si>
-  <si>
     <t>Corning Inc</t>
   </si>
   <si>
+    <t>Cintas Corp</t>
+  </si>
+  <si>
+    <t>Halliburton Co</t>
+  </si>
+  <si>
     <t>Bank of New York Mellon Corp/The</t>
   </si>
   <si>
+    <t>Eversource Energy</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corp</t>
+  </si>
+  <si>
+    <t>Leggett &amp; Platt Inc</t>
+  </si>
+  <si>
+    <t>Ross Stores Inc</t>
+  </si>
+  <si>
+    <t>Kraft Heinz Co/The</t>
+  </si>
+  <si>
+    <t>Synopsys Inc</t>
+  </si>
+  <si>
+    <t>Chubb Ltd</t>
+  </si>
+  <si>
     <t>NIKE Inc</t>
   </si>
   <si>
-    <t>Cintas Corp</t>
+    <t>PACCAR Inc</t>
+  </si>
+  <si>
+    <t>STERIS PLC</t>
+  </si>
+  <si>
+    <t>Qorvo Inc</t>
+  </si>
+  <si>
+    <t>Discovery Inc</t>
+  </si>
+  <si>
+    <t>BlackRock Inc</t>
+  </si>
+  <si>
+    <t>Xylem Inc/NY</t>
+  </si>
+  <si>
+    <t>SBA Communications Corp</t>
   </si>
   <si>
     <t>Alliant Energy Corp</t>
   </si>
   <si>
-    <t>Boston Scientific Corp</t>
-  </si>
-  <si>
-    <t>PACCAR Inc</t>
-  </si>
-  <si>
-    <t>Kraft Heinz Co/The</t>
-  </si>
-  <si>
-    <t>Synopsys Inc</t>
-  </si>
-  <si>
-    <t>Qorvo Inc</t>
-  </si>
-  <si>
-    <t>Halliburton Co</t>
-  </si>
-  <si>
-    <t>Chubb Ltd</t>
-  </si>
-  <si>
-    <t>STERIS PLC</t>
-  </si>
-  <si>
-    <t>Leggett &amp; Platt Inc</t>
-  </si>
-  <si>
-    <t>Ross Stores Inc</t>
-  </si>
-  <si>
-    <t>Xylem Inc/NY</t>
-  </si>
-  <si>
-    <t>Discovery Inc</t>
-  </si>
-  <si>
-    <t>BlackRock Inc</t>
+    <t>Ball Corp</t>
   </si>
   <si>
     <t>Nielsen Holdings PLC</t>
   </si>
   <si>
+    <t>Digital Realty Trust Inc</t>
+  </si>
+  <si>
+    <t>Biogen Inc</t>
+  </si>
+  <si>
+    <t>Eastman Chemical Co</t>
+  </si>
+  <si>
+    <t>Westrock Co</t>
+  </si>
+  <si>
     <t>Teledyne Technologies Inc</t>
   </si>
   <si>
-    <t>Digital Realty Trust Inc</t>
-  </si>
-  <si>
-    <t>SBA Communications Corp</t>
-  </si>
-  <si>
-    <t>Biogen Inc</t>
-  </si>
-  <si>
-    <t>Eversource Energy</t>
-  </si>
-  <si>
-    <t>Ball Corp</t>
-  </si>
-  <si>
-    <t>Westrock Co</t>
-  </si>
-  <si>
-    <t>Eastman Chemical Co</t>
+    <t>Loews Corp</t>
   </si>
   <si>
     <t>PVH Corp</t>
   </si>
   <si>
-    <t>Loews Corp</t>
+    <t>Raytheon Technologies Corp</t>
+  </si>
+  <si>
+    <t>Conagra Brands Inc</t>
+  </si>
+  <si>
+    <t>Enphase Energy Inc</t>
+  </si>
+  <si>
+    <t>Microchip Technology Inc</t>
+  </si>
+  <si>
+    <t>Northern Trust Corp</t>
   </si>
   <si>
     <t>Bio-Rad Laboratories Inc</t>
   </si>
   <si>
-    <t>Enphase Energy Inc</t>
-  </si>
-  <si>
-    <t>Conagra Brands Inc</t>
-  </si>
-  <si>
-    <t>Raytheon Technologies Corp</t>
-  </si>
-  <si>
-    <t>Northern Trust Corp</t>
-  </si>
-  <si>
-    <t>Microchip Technology Inc</t>
+    <t>Exxon Mobil Corp</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co Inc</t>
   </si>
   <si>
     <t>Ingersoll Rand Inc</t>
   </si>
   <si>
+    <t>Caesars Entertainment Inc</t>
+  </si>
+  <si>
     <t>Take-Two Interactive Software Inc</t>
   </si>
   <si>
-    <t>Exxon Mobil Corp</t>
-  </si>
-  <si>
-    <t>Merck &amp; Co Inc</t>
-  </si>
-  <si>
-    <t>Caesars Entertainment Inc</t>
-  </si>
-  <si>
     <t>Jack Henry &amp; Associates Inc</t>
   </si>
   <si>
+    <t>Starbucks Corp</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co</t>
+  </si>
+  <si>
     <t>Leidos Holdings Inc</t>
   </si>
   <si>
+    <t>Public Service Enterprise Group Inc</t>
+  </si>
+  <si>
     <t>US Bancorp</t>
   </si>
   <si>
-    <t>Public Service Enterprise Group Inc</t>
-  </si>
-  <si>
-    <t>Starbucks Corp</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase &amp; Co</t>
+    <t>Duke Realty Corp</t>
+  </si>
+  <si>
+    <t>Hormel Foods Corp</t>
   </si>
   <si>
     <t>Akamai Technologies Inc</t>
   </si>
   <si>
-    <t>Duke Realty Corp</t>
-  </si>
-  <si>
-    <t>Hormel Foods Corp</t>
+    <t>Becton Dickinson and Co</t>
   </si>
   <si>
     <t>Hasbro Inc</t>
   </si>
   <si>
-    <t>Becton Dickinson and Co</t>
+    <t>Cerner Corp</t>
   </si>
   <si>
     <t>L3Harris Technologies Inc</t>
   </si>
   <si>
-    <t>Cerner Corp</t>
-  </si>
-  <si>
     <t>Pioneer Natural Resources Co</t>
   </si>
   <si>
+    <t>Xilinx Inc</t>
+  </si>
+  <si>
+    <t>M&amp;T Bank Corp</t>
+  </si>
+  <si>
+    <t>Cadence Design Systems Inc</t>
+  </si>
+  <si>
+    <t>AMETEK Inc</t>
+  </si>
+  <si>
     <t>Vulcan Materials Co</t>
   </si>
   <si>
-    <t>Xilinx Inc</t>
-  </si>
-  <si>
-    <t>Cadence Design Systems Inc</t>
-  </si>
-  <si>
-    <t>M&amp;T Bank Corp</t>
-  </si>
-  <si>
-    <t>AMETEK Inc</t>
+    <t>DENTSPLY SIRONA Inc</t>
   </si>
   <si>
     <t>Ventas Inc</t>
   </si>
   <si>
-    <t>DENTSPLY SIRONA Inc</t>
-  </si>
-  <si>
     <t>Garmin Ltd</t>
   </si>
   <si>
+    <t>Gap Inc/The</t>
+  </si>
+  <si>
     <t>Campbell Soup Co</t>
   </si>
   <si>
+    <t>MetLife Inc</t>
+  </si>
+  <si>
+    <t>People's United Financial Inc</t>
+  </si>
+  <si>
+    <t>CSX Corp</t>
+  </si>
+  <si>
+    <t>Align Technology Inc</t>
+  </si>
+  <si>
+    <t>PPL Corp</t>
+  </si>
+  <si>
+    <t>Atmos Energy Corp</t>
+  </si>
+  <si>
+    <t>Monolithic Power Systems Inc</t>
+  </si>
+  <si>
     <t>Electronic Arts Inc</t>
   </si>
   <si>
-    <t>Gap Inc/The</t>
-  </si>
-  <si>
-    <t>Atmos Energy Corp</t>
-  </si>
-  <si>
-    <t>People's United Financial Inc</t>
-  </si>
-  <si>
-    <t>MetLife Inc</t>
-  </si>
-  <si>
-    <t>CSX Corp</t>
-  </si>
-  <si>
-    <t>Align Technology Inc</t>
-  </si>
-  <si>
-    <t>PPL Corp</t>
-  </si>
-  <si>
-    <t>Monolithic Power Systems Inc</t>
-  </si>
-  <si>
     <t>IDEX Corp</t>
   </si>
   <si>
@@ -2692,82 +2692,85 @@
     <t>Norfolk Southern Corp</t>
   </si>
   <si>
+    <t>State Street Corp</t>
+  </si>
+  <si>
+    <t>Molson Coors Beverage Co</t>
+  </si>
+  <si>
+    <t>ResMed Inc</t>
+  </si>
+  <si>
     <t>Marriott International Inc/MD</t>
   </si>
   <si>
-    <t>State Street Corp</t>
-  </si>
-  <si>
-    <t>ResMed Inc</t>
-  </si>
-  <si>
     <t>DuPont de Nemours Inc</t>
   </si>
   <si>
-    <t>Molson Coors Beverage Co</t>
-  </si>
-  <si>
     <t>Amazon.com Inc</t>
   </si>
   <si>
+    <t>Equinix Inc</t>
+  </si>
+  <si>
     <t>Autodesk Inc</t>
   </si>
   <si>
-    <t>Equinix Inc</t>
-  </si>
-  <si>
     <t>Amgen Inc</t>
   </si>
   <si>
+    <t>Alaska Air Group Inc</t>
+  </si>
+  <si>
     <t>American Airlines Group Inc</t>
   </si>
   <si>
     <t>Analog Devices Inc</t>
   </si>
   <si>
-    <t>Alaska Air Group Inc</t>
+    <t>T-Mobile US Inc</t>
   </si>
   <si>
     <t>Stryker Corp</t>
   </si>
   <si>
+    <t>Expedia Group Inc</t>
+  </si>
+  <si>
     <t>Travelers Cos Inc/The</t>
   </si>
   <si>
-    <t>T-Mobile US Inc</t>
-  </si>
-  <si>
-    <t>Expedia Group Inc</t>
-  </si>
-  <si>
     <t>Cboe Global Markets Inc</t>
   </si>
   <si>
     <t>Clorox Co/The</t>
   </si>
   <si>
+    <t>FMC Corp</t>
+  </si>
+  <si>
+    <t>Phillips 66</t>
+  </si>
+  <si>
+    <t>Hess Corp</t>
+  </si>
+  <si>
+    <t>Chipotle Mexican Grill Inc</t>
+  </si>
+  <si>
+    <t>WEC Energy Group Inc</t>
+  </si>
+  <si>
+    <t>Vornado Realty Trust</t>
+  </si>
+  <si>
     <t>Copart Inc</t>
   </si>
   <si>
-    <t>Chipotle Mexican Grill Inc</t>
-  </si>
-  <si>
     <t>Adobe Inc</t>
   </si>
   <si>
-    <t>Vornado Realty Trust</t>
-  </si>
-  <si>
-    <t>FMC Corp</t>
-  </si>
-  <si>
-    <t>WEC Energy Group Inc</t>
-  </si>
-  <si>
-    <t>Phillips 66</t>
-  </si>
-  <si>
-    <t>Hess Corp</t>
+    <t>Fiserv Inc</t>
   </si>
   <si>
     <t>Truist Financial Corp</t>
@@ -2776,51 +2779,51 @@
     <t>Vertex Pharmaceuticals Inc</t>
   </si>
   <si>
-    <t>Fiserv Inc</t>
+    <t>Monster Beverage Corp</t>
+  </si>
+  <si>
+    <t>VF Corp</t>
+  </si>
+  <si>
+    <t>Medtronic PLC</t>
   </si>
   <si>
     <t>AT&amp;T Inc</t>
   </si>
   <si>
-    <t>Monster Beverage Corp</t>
-  </si>
-  <si>
-    <t>VF Corp</t>
-  </si>
-  <si>
     <t>salesforce.com Inc</t>
   </si>
   <si>
     <t>Southwest Airlines Co</t>
   </si>
   <si>
-    <t>Medtronic PLC</t>
+    <t>Sempra Energy</t>
+  </si>
+  <si>
+    <t>MSCI Inc</t>
   </si>
   <si>
     <t>International Flavors &amp; Fragrances Inc</t>
   </si>
   <si>
-    <t>MSCI Inc</t>
-  </si>
-  <si>
-    <t>Sempra Energy</t>
-  </si>
-  <si>
     <t>FedEx Corp</t>
   </si>
   <si>
+    <t>Citrix Systems Inc</t>
+  </si>
+  <si>
     <t>Healthpeak Properties Inc</t>
   </si>
   <si>
     <t>Hilton Worldwide Holdings Inc</t>
   </si>
   <si>
-    <t>Citrix Systems Inc</t>
-  </si>
-  <si>
     <t>Huntington Bancshares Inc/OH</t>
   </si>
   <si>
+    <t>FleetCor Technologies Inc</t>
+  </si>
+  <si>
     <t>Incyte Corp</t>
   </si>
   <si>
@@ -2830,232 +2833,229 @@
     <t>Rollins Inc</t>
   </si>
   <si>
+    <t>Union Pacific Corp</t>
+  </si>
+  <si>
     <t>McDonald's Corp</t>
   </si>
   <si>
-    <t>Union Pacific Corp</t>
-  </si>
-  <si>
     <t>McCormick &amp; Co Inc/MD</t>
   </si>
   <si>
-    <t>FleetCor Technologies Inc</t>
-  </si>
-  <si>
     <t>Tyler Technologies Inc</t>
   </si>
   <si>
+    <t>Walt Disney Co/The</t>
+  </si>
+  <si>
     <t>Willis Towers Watson PLC</t>
   </si>
   <si>
-    <t>Walt Disney Co/The</t>
+    <t>Kinder Morgan Inc</t>
+  </si>
+  <si>
+    <t>Dominion Energy Inc</t>
+  </si>
+  <si>
+    <t>Honeywell International Inc</t>
+  </si>
+  <si>
+    <t>Dexcom Inc</t>
+  </si>
+  <si>
+    <t>Etsy Inc</t>
+  </si>
+  <si>
+    <t>Aflac Inc</t>
+  </si>
+  <si>
+    <t>Linde PLC</t>
   </si>
   <si>
     <t>Realty Income Corp</t>
   </si>
   <si>
-    <t>Honeywell International Inc</t>
-  </si>
-  <si>
-    <t>Linde PLC</t>
-  </si>
-  <si>
-    <t>Dominion Energy Inc</t>
-  </si>
-  <si>
-    <t>Aflac Inc</t>
-  </si>
-  <si>
-    <t>Etsy Inc</t>
-  </si>
-  <si>
-    <t>Dexcom Inc</t>
-  </si>
-  <si>
-    <t>Kinder Morgan Inc</t>
-  </si>
-  <si>
     <t>Tesla Inc</t>
   </si>
   <si>
+    <t>Mastercard Inc</t>
+  </si>
+  <si>
+    <t>Citigroup Inc</t>
+  </si>
+  <si>
+    <t>IPG Photonics Corp</t>
+  </si>
+  <si>
     <t>PayPal Holdings Inc</t>
   </si>
   <si>
-    <t>Citigroup Inc</t>
+    <t>Zimmer Biomet Holdings Inc</t>
   </si>
   <si>
     <t>Constellation Brands Inc</t>
   </si>
   <si>
-    <t>Mastercard Inc</t>
-  </si>
-  <si>
-    <t>IPG Photonics Corp</t>
-  </si>
-  <si>
-    <t>Zimmer Biomet Holdings Inc</t>
-  </si>
-  <si>
     <t>Kansas City Southern</t>
   </si>
   <si>
+    <t>Penn National Gaming Inc</t>
+  </si>
+  <si>
+    <t>Fortive Corp</t>
+  </si>
+  <si>
+    <t>McKesson Corp</t>
+  </si>
+  <si>
+    <t>Newmont Corp</t>
+  </si>
+  <si>
+    <t>Match Group Inc</t>
+  </si>
+  <si>
     <t>Pinnacle West Capital Corp</t>
   </si>
   <si>
-    <t>Fortive Corp</t>
-  </si>
-  <si>
-    <t>Match Group Inc</t>
-  </si>
-  <si>
-    <t>Newmont Corp</t>
-  </si>
-  <si>
-    <t>Penn National Gaming Inc</t>
-  </si>
-  <si>
     <t>Prudential Financial Inc</t>
   </si>
   <si>
-    <t>McKesson Corp</t>
+    <t>Booking Holdings Inc</t>
+  </si>
+  <si>
+    <t>Baker Hughes Co</t>
+  </si>
+  <si>
+    <t>Prologis Inc</t>
   </si>
   <si>
     <t>United Airlines Holdings Inc</t>
   </si>
   <si>
-    <t>Baker Hughes Co</t>
-  </si>
-  <si>
-    <t>Prologis Inc</t>
-  </si>
-  <si>
-    <t>Booking Holdings Inc</t>
-  </si>
-  <si>
     <t>Bristol-Myers Squibb Co</t>
   </si>
   <si>
+    <t>Fidelity National Information Services Inc</t>
+  </si>
+  <si>
     <t>Coca-Cola Co/The</t>
   </si>
   <si>
-    <t>Fidelity National Information Services Inc</t>
-  </si>
-  <si>
     <t>Globe Life Inc</t>
   </si>
   <si>
+    <t>Wynn Resorts Ltd</t>
+  </si>
+  <si>
+    <t>TransDigm Group Inc</t>
+  </si>
+  <si>
+    <t>Intercontinental Exchange Inc</t>
+  </si>
+  <si>
+    <t>Global Payments Inc</t>
+  </si>
+  <si>
     <t>Teleflex Inc</t>
   </si>
   <si>
-    <t>Wynn Resorts Ltd</t>
-  </si>
-  <si>
-    <t>TransDigm Group Inc</t>
-  </si>
-  <si>
-    <t>Global Payments Inc</t>
-  </si>
-  <si>
-    <t>Intercontinental Exchange Inc</t>
-  </si>
-  <si>
     <t>Delta Air Lines Inc</t>
   </si>
   <si>
+    <t>Activision Blizzard Inc</t>
+  </si>
+  <si>
     <t>Ecolab Inc</t>
   </si>
   <si>
-    <t>Activision Blizzard Inc</t>
+    <t>Visa Inc</t>
   </si>
   <si>
     <t>NextEra Energy Inc</t>
   </si>
   <si>
-    <t>Visa Inc</t>
-  </si>
-  <si>
     <t>Alexandria Real Estate Equities Inc</t>
   </si>
   <si>
+    <t>Carnival Corp</t>
+  </si>
+  <si>
     <t>Lamb Weston Holdings Inc</t>
   </si>
   <si>
     <t>Assurant Inc</t>
   </si>
   <si>
+    <t>Royal Caribbean Cruises Ltd</t>
+  </si>
+  <si>
     <t>Viatris Inc</t>
   </si>
   <si>
-    <t>Royal Caribbean Cruises Ltd</t>
-  </si>
-  <si>
-    <t>Carnival Corp</t>
+    <t>IHS Markit Ltd</t>
+  </si>
+  <si>
+    <t>Allstate Corp/The</t>
   </si>
   <si>
     <t>ABIOMED Inc</t>
   </si>
   <si>
-    <t>IHS Markit Ltd</t>
-  </si>
-  <si>
-    <t>Allstate Corp/The</t>
+    <t>Roper Technologies Inc</t>
+  </si>
+  <si>
+    <t>ANSYS Inc</t>
   </si>
   <si>
     <t>Williams Cos Inc/The</t>
   </si>
   <si>
-    <t>ANSYS Inc</t>
-  </si>
-  <si>
-    <t>Roper Technologies Inc</t>
+    <t>American Water Works Co Inc</t>
+  </si>
+  <si>
+    <t>Ceridian HCM Holding Inc</t>
   </si>
   <si>
     <t>Air Products and Chemicals Inc</t>
   </si>
   <si>
-    <t>American Water Works Co Inc</t>
-  </si>
-  <si>
-    <t>Ceridian HCM Holding Inc</t>
-  </si>
-  <si>
     <t>Twitter Inc</t>
   </si>
   <si>
+    <t>Host Hotels &amp; Resorts Inc</t>
+  </si>
+  <si>
+    <t>Boeing Co/The</t>
+  </si>
+  <si>
+    <t>Intuitive Surgical Inc</t>
+  </si>
+  <si>
+    <t>ServiceNow Inc</t>
+  </si>
+  <si>
+    <t>Brown-Forman Corp</t>
+  </si>
+  <si>
+    <t>CME Group Inc</t>
+  </si>
+  <si>
     <t>Norwegian Cruise Line Holdings Ltd</t>
   </si>
   <si>
-    <t>Boeing Co/The</t>
-  </si>
-  <si>
-    <t>Host Hotels &amp; Resorts Inc</t>
-  </si>
-  <si>
-    <t>Intuitive Surgical Inc</t>
-  </si>
-  <si>
-    <t>ServiceNow Inc</t>
-  </si>
-  <si>
-    <t>Brown-Forman Corp</t>
-  </si>
-  <si>
-    <t>CME Group Inc</t>
-  </si>
-  <si>
     <t>Illumina Inc</t>
   </si>
   <si>
+    <t>Las Vegas Sands Corp</t>
+  </si>
+  <si>
     <t>MarketAxess Holdings Inc</t>
   </si>
   <si>
-    <t>Las Vegas Sands Corp</t>
+    <t>Paycom Software Inc</t>
   </si>
   <si>
     <t>Verisk Analytics Inc</t>
-  </si>
-  <si>
-    <t>Paycom Software Inc</t>
   </si>
   <si>
     <t>Information Technology</t>
@@ -3699,10 +3699,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.4</v>
+        <v>-1.39</v>
       </c>
       <c r="G9" s="1">
         <v>-0.3</v>
@@ -3959,10 +3959,10 @@
         <v>0.97</v>
       </c>
       <c r="E19" s="1">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F19" s="1">
-        <v>-1.46</v>
+        <v>-1.45</v>
       </c>
       <c r="G19" s="1">
         <v>1.58</v>
@@ -4534,7 +4534,7 @@
         <v>1.12</v>
       </c>
       <c r="F41" s="1">
-        <v>-1.81</v>
+        <v>-1.8</v>
       </c>
       <c r="G41" s="1">
         <v>0.61</v>
@@ -4557,10 +4557,10 @@
         <v>0.93</v>
       </c>
       <c r="E42" s="1">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="F42" s="1">
-        <v>-0.84</v>
+        <v>-0.85</v>
       </c>
       <c r="G42" s="1">
         <v>2.04</v>
@@ -4924,7 +4924,7 @@
         <v>0.83</v>
       </c>
       <c r="F56" s="1">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="G56" s="1">
         <v>1.34</v>
@@ -5314,7 +5314,7 @@
         <v>0.6</v>
       </c>
       <c r="F71" s="1">
-        <v>-0.58</v>
+        <v>-0.57</v>
       </c>
       <c r="G71" s="1">
         <v>0.5600000000000001</v>
@@ -5571,10 +5571,10 @@
         <v>0.86</v>
       </c>
       <c r="E81" s="1">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F81" s="1">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G81" s="1">
         <v>1.98</v>
@@ -5909,10 +5909,10 @@
         <v>0.83</v>
       </c>
       <c r="E94" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F94" s="1">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G94" s="1">
         <v>0.79</v>
@@ -5990,7 +5990,7 @@
         <v>0.4</v>
       </c>
       <c r="F97" s="1">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="G97" s="1">
         <v>1.08</v>
@@ -6354,7 +6354,7 @@
         <v>0.32</v>
       </c>
       <c r="F111" s="1">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="G111" s="1">
         <v>1.49</v>
@@ -6429,10 +6429,10 @@
         <v>0.79</v>
       </c>
       <c r="E114" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F114" s="1">
-        <v>-0.75</v>
+        <v>-0.76</v>
       </c>
       <c r="G114" s="1">
         <v>0.23</v>
@@ -6845,10 +6845,10 @@
         <v>0.76</v>
       </c>
       <c r="E130" s="1">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="F130" s="1">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="G130" s="1">
         <v>0.71</v>
@@ -6952,7 +6952,7 @@
         <v>0.2</v>
       </c>
       <c r="F134" s="1">
-        <v>-0.46</v>
+        <v>-0.47</v>
       </c>
       <c r="G134" s="1">
         <v>0.12</v>
@@ -7703,10 +7703,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E163" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F163" s="1">
-        <v>-0.08</v>
+        <v>-0.14</v>
       </c>
       <c r="G163" s="1">
         <v>0.28</v>
@@ -8119,10 +8119,10 @@
         <v>0.66</v>
       </c>
       <c r="E179" s="1">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="F179" s="1">
-        <v>-0.74</v>
+        <v>-0.79</v>
       </c>
       <c r="G179" s="1">
         <v>-0.28</v>
@@ -8301,10 +8301,10 @@
         <v>0.64</v>
       </c>
       <c r="E186" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F186" s="1">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="G186" s="1">
         <v>0.29</v>
@@ -8399,7 +8399,7 @@
         <v>698</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D190" s="1">
         <v>0.64</v>
@@ -8408,13 +8408,13 @@
         <v>0.09</v>
       </c>
       <c r="F190" s="1">
-        <v>-0.48</v>
+        <v>-0.21</v>
       </c>
       <c r="G190" s="1">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="H190" s="1">
-        <v>-0.44</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -8425,22 +8425,22 @@
         <v>699</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D191" s="1">
         <v>0.64</v>
       </c>
       <c r="E191" s="1">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F191" s="1">
-        <v>-0.01</v>
+        <v>-0.48</v>
       </c>
       <c r="G191" s="1">
-        <v>0.87</v>
+        <v>0.22</v>
       </c>
       <c r="H191" s="1">
-        <v>-0.38</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -8451,22 +8451,22 @@
         <v>700</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D192" s="1">
         <v>0.64</v>
       </c>
       <c r="E192" s="1">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="F192" s="1">
-        <v>-0.21</v>
+        <v>-0.01</v>
       </c>
       <c r="G192" s="1">
-        <v>0.42</v>
+        <v>0.87</v>
       </c>
       <c r="H192" s="1">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -8581,22 +8581,22 @@
         <v>705</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D197" s="1">
         <v>0.62</v>
       </c>
       <c r="E197" s="1">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="F197" s="1">
-        <v>-0.77</v>
+        <v>-0.62</v>
       </c>
       <c r="G197" s="1">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="H197" s="1">
-        <v>-0.75</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -8607,22 +8607,22 @@
         <v>706</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D198" s="1">
         <v>0.62</v>
       </c>
       <c r="E198" s="1">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F198" s="1">
-        <v>-0.62</v>
+        <v>-0.61</v>
       </c>
       <c r="G198" s="1">
-        <v>0.14</v>
+        <v>-0.1</v>
       </c>
       <c r="H198" s="1">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -8633,22 +8633,22 @@
         <v>707</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D199" s="1">
         <v>0.62</v>
       </c>
       <c r="E199" s="1">
-        <v>0.07000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="F199" s="1">
-        <v>-0.61</v>
+        <v>-0.93</v>
       </c>
       <c r="G199" s="1">
-        <v>-0.1</v>
+        <v>-1.18</v>
       </c>
       <c r="H199" s="1">
-        <v>-0.31</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8659,22 +8659,22 @@
         <v>708</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D200" s="1">
         <v>0.62</v>
       </c>
       <c r="E200" s="1">
-        <v>-0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F200" s="1">
-        <v>-0.9399999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G200" s="1">
-        <v>-1.18</v>
+        <v>0.91</v>
       </c>
       <c r="H200" s="1">
-        <v>-0.24</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8685,22 +8685,22 @@
         <v>709</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D201" s="1">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E201" s="1">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F201" s="1">
-        <v>0.11</v>
+        <v>-1.2</v>
       </c>
       <c r="G201" s="1">
-        <v>0.91</v>
+        <v>-0.47</v>
       </c>
       <c r="H201" s="1">
-        <v>-0.39</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -8746,13 +8746,13 @@
         <v>0.06</v>
       </c>
       <c r="F203" s="1">
-        <v>-1.2</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G203" s="1">
-        <v>-0.47</v>
+        <v>-0.1</v>
       </c>
       <c r="H203" s="1">
-        <v>-0.54</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8763,22 +8763,22 @@
         <v>712</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D204" s="1">
         <v>0.61</v>
       </c>
       <c r="E204" s="1">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="F204" s="1">
-        <v>-0.5600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="G204" s="1">
-        <v>-0.1</v>
+        <v>0.65</v>
       </c>
       <c r="H204" s="1">
-        <v>-0.28</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8798,13 +8798,13 @@
         <v>0.16</v>
       </c>
       <c r="F205" s="1">
-        <v>0.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G205" s="1">
-        <v>0.65</v>
+        <v>1.36</v>
       </c>
       <c r="H205" s="1">
-        <v>0.19</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8815,22 +8815,22 @@
         <v>714</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D206" s="1">
         <v>0.61</v>
       </c>
       <c r="E206" s="1">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="F206" s="1">
-        <v>0.5600000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G206" s="1">
-        <v>1.36</v>
+        <v>0.34</v>
       </c>
       <c r="H206" s="1">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8841,22 +8841,22 @@
         <v>715</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="D207" s="1">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E207" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F207" s="1">
-        <v>0.04</v>
+        <v>-0.76</v>
       </c>
       <c r="G207" s="1">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="H207" s="1">
-        <v>-0.3</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8945,22 +8945,22 @@
         <v>719</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D211" s="1">
         <v>0.6</v>
       </c>
       <c r="E211" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F211" s="1">
-        <v>-0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G211" s="1">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="H211" s="1">
-        <v>-0.71</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8971,22 +8971,22 @@
         <v>720</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D212" s="1">
         <v>0.6</v>
       </c>
       <c r="E212" s="1">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="F212" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G212" s="1">
-        <v>0.22</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H212" s="1">
-        <v>0.98</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8997,22 +8997,22 @@
         <v>721</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D213" s="1">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E213" s="1">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F213" s="1">
-        <v>-0.32</v>
+        <v>-0.78</v>
       </c>
       <c r="G213" s="1">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="H213" s="1">
-        <v>-0.36</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -9020,25 +9020,25 @@
         <v>220</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D214" s="1">
         <v>0.59</v>
       </c>
       <c r="E214" s="1">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="F214" s="1">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="G214" s="1">
-        <v>0.29</v>
+        <v>-0.21</v>
       </c>
       <c r="H214" s="1">
-        <v>-0.21</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -9046,25 +9046,25 @@
         <v>221</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D215" s="1">
         <v>0.59</v>
       </c>
       <c r="E215" s="1">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F215" s="1">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="G215" s="1">
+        <v>0.29</v>
+      </c>
+      <c r="H215" s="1">
         <v>-0.21</v>
-      </c>
-      <c r="H215" s="1">
-        <v>-0.29</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -9075,22 +9075,22 @@
         <v>723</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D216" s="1">
         <v>0.59</v>
       </c>
       <c r="E216" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F216" s="1">
-        <v>3</v>
+        <v>-0.32</v>
       </c>
       <c r="G216" s="1">
-        <v>2.93</v>
+        <v>0.21</v>
       </c>
       <c r="H216" s="1">
-        <v>0.23</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -9110,7 +9110,7 @@
         <v>-0.17</v>
       </c>
       <c r="F217" s="1">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="G217" s="1">
         <v>0.32</v>
@@ -9127,22 +9127,22 @@
         <v>725</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D218" s="1">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="E218" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="F218" s="1">
-        <v>-0.07000000000000001</v>
+        <v>3</v>
       </c>
       <c r="G218" s="1">
-        <v>0.97</v>
+        <v>2.93</v>
       </c>
       <c r="H218" s="1">
-        <v>-0.58</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -9205,22 +9205,22 @@
         <v>728</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D221" s="1">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="E221" s="1">
-        <v>-0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F221" s="1">
-        <v>-0.23</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G221" s="1">
-        <v>-0.47</v>
+        <v>0.97</v>
       </c>
       <c r="H221" s="1">
-        <v>0.08</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -9231,22 +9231,22 @@
         <v>729</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="D222" s="1">
         <v>0.57</v>
       </c>
       <c r="E222" s="1">
-        <v>0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="F222" s="1">
-        <v>-0.38</v>
+        <v>-0.28</v>
       </c>
       <c r="G222" s="1">
-        <v>0.17</v>
+        <v>-0.48</v>
       </c>
       <c r="H222" s="1">
-        <v>-0.47</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -9257,22 +9257,22 @@
         <v>730</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D223" s="1">
         <v>0.57</v>
       </c>
       <c r="E223" s="1">
-        <v>-0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F223" s="1">
-        <v>-0.27</v>
+        <v>-0.78</v>
       </c>
       <c r="G223" s="1">
-        <v>-0.48</v>
+        <v>0.02</v>
       </c>
       <c r="H223" s="1">
-        <v>0.01</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -9309,22 +9309,22 @@
         <v>732</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D225" s="1">
         <v>0.57</v>
       </c>
       <c r="E225" s="1">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="F225" s="1">
-        <v>-0.78</v>
+        <v>-0.38</v>
       </c>
       <c r="G225" s="1">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="H225" s="1">
-        <v>-0.4</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -9335,22 +9335,22 @@
         <v>733</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="D226" s="1">
         <v>0.57</v>
       </c>
       <c r="E226" s="1">
-        <v>0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="F226" s="1">
-        <v>0.92</v>
+        <v>-0.23</v>
       </c>
       <c r="G226" s="1">
-        <v>-0.5600000000000001</v>
+        <v>-0.47</v>
       </c>
       <c r="H226" s="1">
-        <v>1.55</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -9361,22 +9361,22 @@
         <v>734</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D227" s="1">
         <v>0.5600000000000001</v>
       </c>
       <c r="E227" s="1">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F227" s="1">
-        <v>-0.57</v>
+        <v>0.63</v>
       </c>
       <c r="G227" s="1">
-        <v>-0.12</v>
+        <v>-0.22</v>
       </c>
       <c r="H227" s="1">
-        <v>-0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -9387,22 +9387,22 @@
         <v>735</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="D228" s="1">
         <v>0.5600000000000001</v>
       </c>
       <c r="E228" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F228" s="1">
-        <v>-0.51</v>
+        <v>-1.05</v>
       </c>
       <c r="G228" s="1">
-        <v>0.4</v>
+        <v>-0.62</v>
       </c>
       <c r="H228" s="1">
-        <v>-0.78</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -9413,22 +9413,22 @@
         <v>736</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D229" s="1">
         <v>0.5600000000000001</v>
       </c>
       <c r="E229" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F229" s="1">
-        <v>-0.27</v>
+        <v>-0.51</v>
       </c>
       <c r="G229" s="1">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="H229" s="1">
-        <v>-0.25</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -9439,22 +9439,22 @@
         <v>737</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D230" s="1">
         <v>0.5600000000000001</v>
       </c>
       <c r="E230" s="1">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F230" s="1">
-        <v>-0.52</v>
+        <v>-0.27</v>
       </c>
       <c r="G230" s="1">
-        <v>1.58</v>
+        <v>0.05</v>
       </c>
       <c r="H230" s="1">
-        <v>-2.22</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -9465,22 +9465,22 @@
         <v>738</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D231" s="1">
         <v>0.5600000000000001</v>
       </c>
       <c r="E231" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F231" s="1">
-        <v>0.63</v>
+        <v>-0.57</v>
       </c>
       <c r="G231" s="1">
-        <v>-0.22</v>
+        <v>-0.12</v>
       </c>
       <c r="H231" s="1">
-        <v>1.05</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -9491,22 +9491,22 @@
         <v>739</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D232" s="1">
         <v>0.5600000000000001</v>
       </c>
       <c r="E232" s="1">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="F232" s="1">
-        <v>-1.05</v>
+        <v>-0.51</v>
       </c>
       <c r="G232" s="1">
-        <v>-0.62</v>
+        <v>1.58</v>
       </c>
       <c r="H232" s="1">
-        <v>-0.38</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -9595,22 +9595,22 @@
         <v>743</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D236" s="1">
         <v>0.54</v>
       </c>
       <c r="E236" s="1">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="F236" s="1">
-        <v>0.85</v>
+        <v>-0.62</v>
       </c>
       <c r="G236" s="1">
-        <v>1.12</v>
+        <v>-0.84</v>
       </c>
       <c r="H236" s="1">
-        <v>0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9621,22 +9621,22 @@
         <v>744</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D237" s="1">
         <v>0.54</v>
       </c>
       <c r="E237" s="1">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F237" s="1">
-        <v>1.26</v>
+        <v>0.85</v>
       </c>
       <c r="G237" s="1">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="H237" s="1">
-        <v>-0.13</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9647,22 +9647,22 @@
         <v>745</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D238" s="1">
         <v>0.54</v>
       </c>
       <c r="E238" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F238" s="1">
-        <v>0.4</v>
+        <v>-0.83</v>
       </c>
       <c r="G238" s="1">
-        <v>0.08</v>
+        <v>-0.93</v>
       </c>
       <c r="H238" s="1">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -9673,22 +9673,22 @@
         <v>746</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D239" s="1">
         <v>0.54</v>
       </c>
       <c r="E239" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F239" s="1">
-        <v>-0.83</v>
+        <v>1.26</v>
       </c>
       <c r="G239" s="1">
-        <v>-0.93</v>
+        <v>1.46</v>
       </c>
       <c r="H239" s="1">
-        <v>0.23</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -9699,22 +9699,22 @@
         <v>747</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D240" s="1">
         <v>0.54</v>
       </c>
       <c r="E240" s="1">
-        <v>-0.17</v>
+        <v>0.02</v>
       </c>
       <c r="F240" s="1">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="G240" s="1">
-        <v>2.18</v>
+        <v>0.08</v>
       </c>
       <c r="H240" s="1">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -9725,22 +9725,22 @@
         <v>748</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D241" s="1">
         <v>0.54</v>
       </c>
       <c r="E241" s="1">
-        <v>0.04</v>
+        <v>-0.17</v>
       </c>
       <c r="F241" s="1">
-        <v>-1.05</v>
+        <v>3</v>
       </c>
       <c r="G241" s="1">
-        <v>-0.52</v>
+        <v>2.18</v>
       </c>
       <c r="H241" s="1">
-        <v>-0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -9751,22 +9751,22 @@
         <v>749</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D242" s="1">
         <v>0.54</v>
       </c>
       <c r="E242" s="1">
-        <v>-0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F242" s="1">
-        <v>-0.62</v>
+        <v>-1.05</v>
       </c>
       <c r="G242" s="1">
-        <v>-0.84</v>
+        <v>-0.52</v>
       </c>
       <c r="H242" s="1">
-        <v>-0.09</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9803,22 +9803,22 @@
         <v>751</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D244" s="1">
         <v>0.53</v>
       </c>
       <c r="E244" s="1">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
       <c r="F244" s="1">
-        <v>-0.74</v>
+        <v>0.11</v>
       </c>
       <c r="G244" s="1">
-        <v>-0.43</v>
+        <v>0.19</v>
       </c>
       <c r="H244" s="1">
-        <v>-0.38</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9855,22 +9855,22 @@
         <v>753</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D246" s="1">
         <v>0.53</v>
       </c>
       <c r="E246" s="1">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="F246" s="1">
-        <v>0.11</v>
+        <v>-0.74</v>
       </c>
       <c r="G246" s="1">
-        <v>0.19</v>
+        <v>-0.43</v>
       </c>
       <c r="H246" s="1">
-        <v>-0.09</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9907,22 +9907,22 @@
         <v>755</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D248" s="1">
         <v>0.52</v>
       </c>
       <c r="E248" s="1">
-        <v>-0.2</v>
+        <v>-0.01</v>
       </c>
       <c r="F248" s="1">
-        <v>0.54</v>
+        <v>-1.11</v>
       </c>
       <c r="G248" s="1">
-        <v>0.25</v>
+        <v>-0.33</v>
       </c>
       <c r="H248" s="1">
-        <v>-0.31</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9959,22 +9959,22 @@
         <v>757</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D250" s="1">
         <v>0.52</v>
       </c>
       <c r="E250" s="1">
-        <v>-0.01</v>
+        <v>-0.2</v>
       </c>
       <c r="F250" s="1">
-        <v>-1.11</v>
+        <v>0.55</v>
       </c>
       <c r="G250" s="1">
-        <v>-0.33</v>
+        <v>0.25</v>
       </c>
       <c r="H250" s="1">
-        <v>-0.8</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9985,22 +9985,22 @@
         <v>758</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D251" s="1">
         <v>0.52</v>
       </c>
       <c r="E251" s="1">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="F251" s="1">
-        <v>-0.83</v>
+        <v>-0.47</v>
       </c>
       <c r="G251" s="1">
-        <v>-0.9</v>
+        <v>-0.59</v>
       </c>
       <c r="H251" s="1">
-        <v>-0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -10011,22 +10011,22 @@
         <v>759</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D252" s="1">
         <v>0.52</v>
       </c>
       <c r="E252" s="1">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="F252" s="1">
-        <v>-0.47</v>
+        <v>-0.83</v>
       </c>
       <c r="G252" s="1">
-        <v>-0.59</v>
+        <v>-0.9</v>
       </c>
       <c r="H252" s="1">
-        <v>0.1</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -10037,7 +10037,7 @@
         <v>760</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D253" s="1">
         <v>0.51</v>
@@ -10046,13 +10046,13 @@
         <v>-0.01</v>
       </c>
       <c r="F253" s="1">
-        <v>-0.24</v>
+        <v>-0.85</v>
       </c>
       <c r="G253" s="1">
-        <v>-0.32</v>
+        <v>-0.47</v>
       </c>
       <c r="H253" s="1">
-        <v>0.05</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -10063,22 +10063,22 @@
         <v>761</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D254" s="1">
         <v>0.51</v>
       </c>
       <c r="E254" s="1">
-        <v>0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="F254" s="1">
-        <v>1.3</v>
+        <v>-0.24</v>
       </c>
       <c r="G254" s="1">
-        <v>1.44</v>
+        <v>-0.32</v>
       </c>
       <c r="H254" s="1">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -10141,22 +10141,22 @@
         <v>764</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D257" s="1">
         <v>0.51</v>
       </c>
       <c r="E257" s="1">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
       <c r="F257" s="1">
-        <v>-0.85</v>
+        <v>1.3</v>
       </c>
       <c r="G257" s="1">
-        <v>-0.47</v>
+        <v>1.44</v>
       </c>
       <c r="H257" s="1">
-        <v>-0.41</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -10167,22 +10167,22 @@
         <v>765</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="D258" s="1">
         <v>0.5</v>
       </c>
       <c r="E258" s="1">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="F258" s="1">
-        <v>-1</v>
+        <v>-1.17</v>
       </c>
       <c r="G258" s="1">
-        <v>-0.76</v>
+        <v>-1.32</v>
       </c>
       <c r="H258" s="1">
-        <v>-0.3</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -10193,22 +10193,22 @@
         <v>766</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D259" s="1">
         <v>0.5</v>
       </c>
       <c r="E259" s="1">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="F259" s="1">
-        <v>-0.36</v>
+        <v>-1</v>
       </c>
       <c r="G259" s="1">
-        <v>-0.68</v>
+        <v>-0.76</v>
       </c>
       <c r="H259" s="1">
-        <v>-0.03</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10219,22 +10219,22 @@
         <v>767</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D260" s="1">
         <v>0.5</v>
       </c>
       <c r="E260" s="1">
+        <v>-0.11</v>
+      </c>
+      <c r="F260" s="1">
+        <v>-0.37</v>
+      </c>
+      <c r="G260" s="1">
+        <v>-0.68</v>
+      </c>
+      <c r="H260" s="1">
         <v>-0.03</v>
-      </c>
-      <c r="F260" s="1">
-        <v>-1.17</v>
-      </c>
-      <c r="G260" s="1">
-        <v>-1.32</v>
-      </c>
-      <c r="H260" s="1">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -10271,22 +10271,22 @@
         <v>769</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D262" s="1">
         <v>0.49</v>
       </c>
       <c r="E262" s="1">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="F262" s="1">
-        <v>-0.72</v>
+        <v>-0.35</v>
       </c>
       <c r="G262" s="1">
-        <v>-0.33</v>
+        <v>-0.45</v>
       </c>
       <c r="H262" s="1">
-        <v>-0.44</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -10297,22 +10297,22 @@
         <v>770</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D263" s="1">
         <v>0.49</v>
       </c>
       <c r="E263" s="1">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="F263" s="1">
-        <v>-0.35</v>
+        <v>-0.72</v>
       </c>
       <c r="G263" s="1">
-        <v>-0.45</v>
+        <v>-0.33</v>
       </c>
       <c r="H263" s="1">
-        <v>-0.04</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -10349,22 +10349,22 @@
         <v>772</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D265" s="1">
         <v>0.48</v>
       </c>
       <c r="E265" s="1">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="F265" s="1">
-        <v>0.53</v>
+        <v>-0.58</v>
       </c>
       <c r="G265" s="1">
-        <v>0.24</v>
+        <v>-0.78</v>
       </c>
       <c r="H265" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -10375,22 +10375,22 @@
         <v>773</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D266" s="1">
         <v>0.48</v>
       </c>
       <c r="E266" s="1">
-        <v>-0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F266" s="1">
-        <v>-1.5</v>
+        <v>-0.68</v>
       </c>
       <c r="G266" s="1">
-        <v>-0.8</v>
+        <v>-0.84</v>
       </c>
       <c r="H266" s="1">
-        <v>-0.76</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -10407,10 +10407,10 @@
         <v>0.48</v>
       </c>
       <c r="E267" s="1">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="F267" s="1">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="G267" s="1">
         <v>-0.72</v>
@@ -10427,22 +10427,22 @@
         <v>775</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D268" s="1">
         <v>0.48</v>
       </c>
       <c r="E268" s="1">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="F268" s="1">
-        <v>-0.58</v>
+        <v>-0.24</v>
       </c>
       <c r="G268" s="1">
-        <v>-0.78</v>
+        <v>-0.83</v>
       </c>
       <c r="H268" s="1">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -10453,22 +10453,22 @@
         <v>776</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D269" s="1">
         <v>0.48</v>
       </c>
       <c r="E269" s="1">
-        <v>0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="F269" s="1">
-        <v>-0.68</v>
+        <v>-1.5</v>
       </c>
       <c r="G269" s="1">
-        <v>-0.84</v>
+        <v>-0.8</v>
       </c>
       <c r="H269" s="1">
-        <v>0.36</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -10479,22 +10479,22 @@
         <v>777</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D270" s="1">
         <v>0.48</v>
       </c>
       <c r="E270" s="1">
-        <v>-0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="F270" s="1">
-        <v>-1.01</v>
+        <v>0.53</v>
       </c>
       <c r="G270" s="1">
-        <v>-1.12</v>
+        <v>0.24</v>
       </c>
       <c r="H270" s="1">
-        <v>-0.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -10505,22 +10505,22 @@
         <v>778</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D271" s="1">
         <v>0.48</v>
       </c>
       <c r="E271" s="1">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F271" s="1">
-        <v>-0.41</v>
+        <v>1.73</v>
       </c>
       <c r="G271" s="1">
-        <v>0.17</v>
+        <v>0.59</v>
       </c>
       <c r="H271" s="1">
-        <v>-0.72</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -10531,22 +10531,22 @@
         <v>779</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D272" s="1">
         <v>0.48</v>
       </c>
       <c r="E272" s="1">
-        <v>-0.05</v>
+        <v>-0.12</v>
       </c>
       <c r="F272" s="1">
-        <v>-0.46</v>
+        <v>-1.01</v>
       </c>
       <c r="G272" s="1">
-        <v>-0.1</v>
+        <v>-1.12</v>
       </c>
       <c r="H272" s="1">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -10557,22 +10557,22 @@
         <v>780</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D273" s="1">
         <v>0.48</v>
       </c>
       <c r="E273" s="1">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="F273" s="1">
-        <v>-0.24</v>
+        <v>-0.41</v>
       </c>
       <c r="G273" s="1">
-        <v>-0.83</v>
+        <v>0.17</v>
       </c>
       <c r="H273" s="1">
-        <v>0.36</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -10583,22 +10583,22 @@
         <v>781</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D274" s="1">
         <v>0.48</v>
       </c>
       <c r="E274" s="1">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="F274" s="1">
-        <v>1.73</v>
+        <v>-0.46</v>
       </c>
       <c r="G274" s="1">
-        <v>0.59</v>
+        <v>-0.1</v>
       </c>
       <c r="H274" s="1">
-        <v>0.9399999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -10609,22 +10609,22 @@
         <v>782</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D275" s="1">
         <v>0.47</v>
       </c>
       <c r="E275" s="1">
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="F275" s="1">
-        <v>-1.1</v>
+        <v>-0.7</v>
       </c>
       <c r="G275" s="1">
-        <v>-1</v>
+        <v>-0.87</v>
       </c>
       <c r="H275" s="1">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -10635,22 +10635,22 @@
         <v>783</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="D276" s="1">
         <v>0.47</v>
       </c>
       <c r="E276" s="1">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="F276" s="1">
-        <v>-1.05</v>
+        <v>-1.1</v>
       </c>
       <c r="G276" s="1">
-        <v>-0.88</v>
+        <v>-1</v>
       </c>
       <c r="H276" s="1">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -10661,22 +10661,22 @@
         <v>784</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D277" s="1">
         <v>0.47</v>
       </c>
       <c r="E277" s="1">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="F277" s="1">
-        <v>-0.7</v>
+        <v>-1.05</v>
       </c>
       <c r="G277" s="1">
-        <v>-0.87</v>
+        <v>-0.88</v>
       </c>
       <c r="H277" s="1">
-        <v>-0.1</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -10713,22 +10713,22 @@
         <v>786</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D279" s="1">
         <v>0.46</v>
       </c>
       <c r="E279" s="1">
-        <v>-0.19</v>
+        <v>0.06</v>
       </c>
       <c r="F279" s="1">
-        <v>-0.15</v>
+        <v>-0.68</v>
       </c>
       <c r="G279" s="1">
-        <v>-0.72</v>
+        <v>-0.25</v>
       </c>
       <c r="H279" s="1">
-        <v>0.01</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10765,22 +10765,22 @@
         <v>788</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D281" s="1">
         <v>0.46</v>
       </c>
       <c r="E281" s="1">
-        <v>0.06</v>
+        <v>-0.18</v>
       </c>
       <c r="F281" s="1">
-        <v>-0.68</v>
+        <v>-0.16</v>
       </c>
       <c r="G281" s="1">
-        <v>-0.25</v>
+        <v>-0.72</v>
       </c>
       <c r="H281" s="1">
-        <v>-0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10791,22 +10791,22 @@
         <v>789</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D282" s="1">
         <v>0.45</v>
       </c>
       <c r="E282" s="1">
-        <v>-0.11</v>
+        <v>-0.29</v>
       </c>
       <c r="F282" s="1">
-        <v>-0.43</v>
+        <v>0.28</v>
       </c>
       <c r="G282" s="1">
-        <v>-0.34</v>
+        <v>-0.83</v>
       </c>
       <c r="H282" s="1">
-        <v>-0.43</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10843,22 +10843,22 @@
         <v>791</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D284" s="1">
         <v>0.45</v>
       </c>
       <c r="E284" s="1">
-        <v>-0.07000000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="F284" s="1">
-        <v>-1.09</v>
+        <v>-0.53</v>
       </c>
       <c r="G284" s="1">
-        <v>-0.72</v>
+        <v>-0.51</v>
       </c>
       <c r="H284" s="1">
-        <v>-0.57</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10869,22 +10869,22 @@
         <v>792</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="D285" s="1">
         <v>0.45</v>
       </c>
       <c r="E285" s="1">
-        <v>-0.29</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F285" s="1">
-        <v>0.28</v>
+        <v>-1.09</v>
       </c>
       <c r="G285" s="1">
-        <v>-0.83</v>
+        <v>-0.72</v>
       </c>
       <c r="H285" s="1">
-        <v>0.23</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10904,13 +10904,13 @@
         <v>-0.11</v>
       </c>
       <c r="F286" s="1">
-        <v>-0.53</v>
+        <v>-0.43</v>
       </c>
       <c r="G286" s="1">
-        <v>-0.51</v>
+        <v>-0.34</v>
       </c>
       <c r="H286" s="1">
-        <v>-0.35</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10921,22 +10921,22 @@
         <v>794</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D287" s="1">
         <v>0.44</v>
       </c>
       <c r="E287" s="1">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F287" s="1">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="G287" s="1">
-        <v>-0.24</v>
+        <v>0.19</v>
       </c>
       <c r="H287" s="1">
-        <v>-0.27</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10947,22 +10947,22 @@
         <v>795</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="D288" s="1">
         <v>0.44</v>
       </c>
       <c r="E288" s="1">
-        <v>-0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F288" s="1">
-        <v>0.62</v>
+        <v>-0.03</v>
       </c>
       <c r="G288" s="1">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
       <c r="H288" s="1">
-        <v>0.2</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10973,22 +10973,22 @@
         <v>796</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D289" s="1">
         <v>0.44</v>
       </c>
       <c r="E289" s="1">
-        <v>0.04</v>
+        <v>-0.16</v>
       </c>
       <c r="F289" s="1">
-        <v>-0.03</v>
+        <v>-0.51</v>
       </c>
       <c r="G289" s="1">
-        <v>0.43</v>
+        <v>-0.67</v>
       </c>
       <c r="H289" s="1">
-        <v>-0.34</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10999,22 +10999,22 @@
         <v>797</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D290" s="1">
         <v>0.44</v>
       </c>
       <c r="E290" s="1">
-        <v>-0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F290" s="1">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
       <c r="G290" s="1">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H290" s="1">
-        <v>-0.41</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -11025,22 +11025,22 @@
         <v>798</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="D291" s="1">
         <v>0.44</v>
       </c>
       <c r="E291" s="1">
-        <v>-0.16</v>
+        <v>-0.11</v>
       </c>
       <c r="F291" s="1">
-        <v>-0.51</v>
+        <v>0.62</v>
       </c>
       <c r="G291" s="1">
-        <v>-0.67</v>
+        <v>0.1</v>
       </c>
       <c r="H291" s="1">
-        <v>-0.31</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -11051,22 +11051,22 @@
         <v>799</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D292" s="1">
         <v>0.44</v>
       </c>
       <c r="E292" s="1">
-        <v>0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="F292" s="1">
-        <v>-0.33</v>
+        <v>-0.24</v>
       </c>
       <c r="G292" s="1">
-        <v>0.07000000000000001</v>
+        <v>-0.24</v>
       </c>
       <c r="H292" s="1">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -11086,13 +11086,13 @@
         <v>-0.08</v>
       </c>
       <c r="F293" s="1">
-        <v>-0.99</v>
+        <v>-1.12</v>
       </c>
       <c r="G293" s="1">
-        <v>-0.86</v>
+        <v>-1.31</v>
       </c>
       <c r="H293" s="1">
-        <v>-0.36</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -11103,22 +11103,22 @@
         <v>801</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D294" s="1">
         <v>0.43</v>
       </c>
       <c r="E294" s="1">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="F294" s="1">
-        <v>-0.45</v>
+        <v>-0.99</v>
       </c>
       <c r="G294" s="1">
-        <v>-0.65</v>
+        <v>-0.86</v>
       </c>
       <c r="H294" s="1">
-        <v>-0.1</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -11129,22 +11129,22 @@
         <v>802</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="D295" s="1">
         <v>0.43</v>
       </c>
       <c r="E295" s="1">
-        <v>-0.05</v>
+        <v>-0.21</v>
       </c>
       <c r="F295" s="1">
-        <v>-0.12</v>
+        <v>0.03</v>
       </c>
       <c r="G295" s="1">
-        <v>-0.64</v>
+        <v>-0.32</v>
       </c>
       <c r="H295" s="1">
-        <v>0.37</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -11155,22 +11155,22 @@
         <v>803</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D296" s="1">
         <v>0.43</v>
       </c>
       <c r="E296" s="1">
-        <v>-0.21</v>
+        <v>-0.1</v>
       </c>
       <c r="F296" s="1">
-        <v>0.04</v>
+        <v>-0.45</v>
       </c>
       <c r="G296" s="1">
-        <v>-0.32</v>
+        <v>-0.65</v>
       </c>
       <c r="H296" s="1">
-        <v>-0.27</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -11181,22 +11181,22 @@
         <v>804</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="D297" s="1">
         <v>0.43</v>
       </c>
       <c r="E297" s="1">
-        <v>-0.08</v>
+        <v>-0.22</v>
       </c>
       <c r="F297" s="1">
-        <v>-1.12</v>
+        <v>0.88</v>
       </c>
       <c r="G297" s="1">
-        <v>-1.31</v>
+        <v>0.77</v>
       </c>
       <c r="H297" s="1">
-        <v>-0.05</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -11207,22 +11207,22 @@
         <v>805</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D298" s="1">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="E298" s="1">
-        <v>-0.22</v>
+        <v>-0.16</v>
       </c>
       <c r="F298" s="1">
-        <v>0.88</v>
+        <v>-0.54</v>
       </c>
       <c r="G298" s="1">
-        <v>0.77</v>
+        <v>-0.21</v>
       </c>
       <c r="H298" s="1">
-        <v>-0.54</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -11285,22 +11285,22 @@
         <v>808</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D301" s="1">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="E301" s="1">
-        <v>-0.16</v>
+        <v>-0.1</v>
       </c>
       <c r="F301" s="1">
-        <v>-0.54</v>
+        <v>-0.57</v>
       </c>
       <c r="G301" s="1">
-        <v>-0.21</v>
+        <v>-0.83</v>
       </c>
       <c r="H301" s="1">
-        <v>-0.82</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -11337,22 +11337,22 @@
         <v>810</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D303" s="1">
         <v>0.41</v>
       </c>
       <c r="E303" s="1">
-        <v>-0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="F303" s="1">
-        <v>-0.57</v>
+        <v>1.73</v>
       </c>
       <c r="G303" s="1">
-        <v>-0.83</v>
+        <v>0.98</v>
       </c>
       <c r="H303" s="1">
-        <v>-0.04</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -11363,22 +11363,22 @@
         <v>811</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="D304" s="1">
         <v>0.41</v>
       </c>
       <c r="E304" s="1">
-        <v>-0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="F304" s="1">
-        <v>1.73</v>
+        <v>-0.87</v>
       </c>
       <c r="G304" s="1">
-        <v>0.98</v>
+        <v>-0.89</v>
       </c>
       <c r="H304" s="1">
-        <v>0.2</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -11389,19 +11389,19 @@
         <v>812</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D305" s="1">
         <v>0.41</v>
       </c>
       <c r="E305" s="1">
-        <v>-0.11</v>
+        <v>-0.31</v>
       </c>
       <c r="F305" s="1">
-        <v>-0.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G305" s="1">
-        <v>-0.89</v>
+        <v>0.06</v>
       </c>
       <c r="H305" s="1">
         <v>-0.31</v>
@@ -11415,22 +11415,22 @@
         <v>813</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D306" s="1">
         <v>0.41</v>
       </c>
       <c r="E306" s="1">
-        <v>-0.31</v>
+        <v>-0.21</v>
       </c>
       <c r="F306" s="1">
-        <v>0.6899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="G306" s="1">
-        <v>0.06</v>
+        <v>-0.13</v>
       </c>
       <c r="H306" s="1">
-        <v>-0.31</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -11441,22 +11441,22 @@
         <v>814</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D307" s="1">
         <v>0.41</v>
       </c>
       <c r="E307" s="1">
-        <v>-0.21</v>
+        <v>-0.18</v>
       </c>
       <c r="F307" s="1">
-        <v>-0</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G307" s="1">
-        <v>-0.13</v>
+        <v>-0.67</v>
       </c>
       <c r="H307" s="1">
-        <v>-0.51</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -11467,22 +11467,22 @@
         <v>815</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D308" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="E308" s="1">
-        <v>-0.18</v>
+        <v>-0.05</v>
       </c>
       <c r="F308" s="1">
-        <v>-0.8100000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="G308" s="1">
-        <v>-0.67</v>
+        <v>-0.64</v>
       </c>
       <c r="H308" s="1">
-        <v>-0.6899999999999999</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -11519,22 +11519,22 @@
         <v>817</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D310" s="1">
         <v>0.4</v>
       </c>
       <c r="E310" s="1">
-        <v>-0.01</v>
+        <v>-0.19</v>
       </c>
       <c r="F310" s="1">
-        <v>-0.33</v>
+        <v>0.91</v>
       </c>
       <c r="G310" s="1">
-        <v>0.23</v>
+        <v>-0.17</v>
       </c>
       <c r="H310" s="1">
-        <v>-0.58</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -11545,22 +11545,22 @@
         <v>818</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D311" s="1">
         <v>0.4</v>
       </c>
       <c r="E311" s="1">
-        <v>-0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="F311" s="1">
-        <v>1.16</v>
+        <v>-0.61</v>
       </c>
       <c r="G311" s="1">
-        <v>-0.01</v>
+        <v>-0.95</v>
       </c>
       <c r="H311" s="1">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -11571,22 +11571,22 @@
         <v>819</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D312" s="1">
         <v>0.4</v>
       </c>
       <c r="E312" s="1">
-        <v>-0.19</v>
+        <v>-0.01</v>
       </c>
       <c r="F312" s="1">
-        <v>0.91</v>
+        <v>-0.33</v>
       </c>
       <c r="G312" s="1">
-        <v>-0.17</v>
+        <v>0.23</v>
       </c>
       <c r="H312" s="1">
-        <v>0.52</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -11603,16 +11603,16 @@
         <v>0.39</v>
       </c>
       <c r="E313" s="1">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="F313" s="1">
-        <v>0.85</v>
+        <v>-0.01</v>
       </c>
       <c r="G313" s="1">
-        <v>0.08</v>
+        <v>-0.65</v>
       </c>
       <c r="H313" s="1">
-        <v>0.08</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -11649,22 +11649,22 @@
         <v>822</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D315" s="1">
         <v>0.38</v>
       </c>
       <c r="E315" s="1">
-        <v>-0.2</v>
+        <v>-0.14</v>
       </c>
       <c r="F315" s="1">
-        <v>-0.82</v>
+        <v>-0.6</v>
       </c>
       <c r="G315" s="1">
-        <v>-0.92</v>
+        <v>-0.9</v>
       </c>
       <c r="H315" s="1">
-        <v>-0.49</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -11675,22 +11675,22 @@
         <v>823</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D316" s="1">
         <v>0.38</v>
       </c>
       <c r="E316" s="1">
+        <v>-0.14</v>
+      </c>
+      <c r="F316" s="1">
         <v>-0.24</v>
       </c>
-      <c r="F316" s="1">
-        <v>-0.53</v>
-      </c>
       <c r="G316" s="1">
-        <v>-0.22</v>
+        <v>-0.91</v>
       </c>
       <c r="H316" s="1">
-        <v>-1.03</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -11701,22 +11701,22 @@
         <v>824</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D317" s="1">
         <v>0.38</v>
       </c>
       <c r="E317" s="1">
-        <v>-0.18</v>
+        <v>-0.24</v>
       </c>
       <c r="F317" s="1">
-        <v>0.65</v>
+        <v>-0.53</v>
       </c>
       <c r="G317" s="1">
-        <v>0.54</v>
+        <v>-0.22</v>
       </c>
       <c r="H317" s="1">
-        <v>-0.42</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -11736,13 +11736,13 @@
         <v>-0.18</v>
       </c>
       <c r="F318" s="1">
-        <v>-0.73</v>
+        <v>0.65</v>
       </c>
       <c r="G318" s="1">
-        <v>-1.08</v>
+        <v>0.54</v>
       </c>
       <c r="H318" s="1">
-        <v>-0.2</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -11753,22 +11753,22 @@
         <v>826</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D319" s="1">
         <v>0.38</v>
       </c>
       <c r="E319" s="1">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="F319" s="1">
-        <v>-0.6</v>
+        <v>-0.57</v>
       </c>
       <c r="G319" s="1">
-        <v>-0.95</v>
+        <v>-0.8</v>
       </c>
       <c r="H319" s="1">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -11779,22 +11779,22 @@
         <v>827</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D320" s="1">
         <v>0.38</v>
       </c>
       <c r="E320" s="1">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="F320" s="1">
-        <v>-0.57</v>
+        <v>1.17</v>
       </c>
       <c r="G320" s="1">
-        <v>-0.8</v>
+        <v>-0.01</v>
       </c>
       <c r="H320" s="1">
-        <v>0.09</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11805,22 +11805,22 @@
         <v>828</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D321" s="1">
         <v>0.38</v>
       </c>
       <c r="E321" s="1">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="F321" s="1">
-        <v>-0.18</v>
+        <v>-0.82</v>
       </c>
       <c r="G321" s="1">
-        <v>-0.15</v>
+        <v>-0.92</v>
       </c>
       <c r="H321" s="1">
-        <v>-0.66</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11831,22 +11831,22 @@
         <v>829</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D322" s="1">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E322" s="1">
-        <v>-0.14</v>
+        <v>-0.21</v>
       </c>
       <c r="F322" s="1">
-        <v>-0.6</v>
+        <v>-0.18</v>
       </c>
       <c r="G322" s="1">
-        <v>-0.9</v>
+        <v>-0.15</v>
       </c>
       <c r="H322" s="1">
-        <v>-0.12</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11857,22 +11857,22 @@
         <v>830</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D323" s="1">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E323" s="1">
-        <v>-0.14</v>
+        <v>-0.18</v>
       </c>
       <c r="F323" s="1">
-        <v>-0.24</v>
+        <v>-0.73</v>
       </c>
       <c r="G323" s="1">
-        <v>-0.91</v>
+        <v>-1.08</v>
       </c>
       <c r="H323" s="1">
-        <v>0.26</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11883,22 +11883,22 @@
         <v>831</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D324" s="1">
         <v>0.37</v>
       </c>
       <c r="E324" s="1">
-        <v>-0.21</v>
+        <v>-0.12</v>
       </c>
       <c r="F324" s="1">
-        <v>0.24</v>
+        <v>-0.7</v>
       </c>
       <c r="G324" s="1">
-        <v>-0.06</v>
+        <v>-0.63</v>
       </c>
       <c r="H324" s="1">
-        <v>-0.33</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11909,22 +11909,22 @@
         <v>832</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D325" s="1">
         <v>0.37</v>
       </c>
       <c r="E325" s="1">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="F325" s="1">
-        <v>-0.7</v>
+        <v>0.62</v>
       </c>
       <c r="G325" s="1">
-        <v>-0.63</v>
+        <v>-0.2</v>
       </c>
       <c r="H325" s="1">
-        <v>-0.42</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11935,22 +11935,22 @@
         <v>833</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D326" s="1">
         <v>0.37</v>
       </c>
       <c r="E326" s="1">
-        <v>-0.11</v>
+        <v>-0.21</v>
       </c>
       <c r="F326" s="1">
-        <v>0.62</v>
+        <v>0.24</v>
       </c>
       <c r="G326" s="1">
-        <v>-0.2</v>
+        <v>-0.06</v>
       </c>
       <c r="H326" s="1">
-        <v>0.49</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11961,22 +11961,22 @@
         <v>834</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D327" s="1">
         <v>0.36</v>
       </c>
       <c r="E327" s="1">
-        <v>-0.23</v>
+        <v>-0.33</v>
       </c>
       <c r="F327" s="1">
-        <v>-0.55</v>
+        <v>0.97</v>
       </c>
       <c r="G327" s="1">
-        <v>-0.5</v>
+        <v>-0.57</v>
       </c>
       <c r="H327" s="1">
-        <v>-0.73</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11987,22 +11987,22 @@
         <v>835</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="D328" s="1">
         <v>0.36</v>
       </c>
       <c r="E328" s="1">
-        <v>-0.19</v>
+        <v>-0.29</v>
       </c>
       <c r="F328" s="1">
-        <v>-0.72</v>
+        <v>1.03</v>
       </c>
       <c r="G328" s="1">
-        <v>-0.63</v>
+        <v>0.08</v>
       </c>
       <c r="H328" s="1">
-        <v>-0.66</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -12013,22 +12013,22 @@
         <v>836</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D329" s="1">
         <v>0.36</v>
       </c>
       <c r="E329" s="1">
-        <v>-0.33</v>
+        <v>-0.29</v>
       </c>
       <c r="F329" s="1">
-        <v>-0.04</v>
+        <v>-0.27</v>
       </c>
       <c r="G329" s="1">
-        <v>-0.43</v>
+        <v>-0.88</v>
       </c>
       <c r="H329" s="1">
-        <v>-0.6</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -12039,22 +12039,22 @@
         <v>837</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D330" s="1">
         <v>0.36</v>
       </c>
       <c r="E330" s="1">
-        <v>-0.33</v>
+        <v>-0.23</v>
       </c>
       <c r="F330" s="1">
-        <v>0.97</v>
+        <v>-0.55</v>
       </c>
       <c r="G330" s="1">
-        <v>-0.57</v>
+        <v>-0.5</v>
       </c>
       <c r="H330" s="1">
-        <v>0.55</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -12065,22 +12065,22 @@
         <v>838</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D331" s="1">
         <v>0.36</v>
       </c>
       <c r="E331" s="1">
-        <v>-0.23</v>
+        <v>-0.33</v>
       </c>
       <c r="F331" s="1">
-        <v>-0.5600000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="G331" s="1">
-        <v>-1.09</v>
+        <v>-0.43</v>
       </c>
       <c r="H331" s="1">
-        <v>-0.17</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -12091,22 +12091,22 @@
         <v>839</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D332" s="1">
         <v>0.36</v>
       </c>
       <c r="E332" s="1">
-        <v>-0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="F332" s="1">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G332" s="1">
-        <v>-0.65</v>
+        <v>-1.09</v>
       </c>
       <c r="H332" s="1">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -12126,13 +12126,13 @@
         <v>-0.29</v>
       </c>
       <c r="F333" s="1">
-        <v>-0.27</v>
+        <v>-0.6</v>
       </c>
       <c r="G333" s="1">
+        <v>-0.58</v>
+      </c>
+      <c r="H333" s="1">
         <v>-0.88</v>
-      </c>
-      <c r="H333" s="1">
-        <v>-0.25</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -12169,22 +12169,22 @@
         <v>842</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D335" s="1">
         <v>0.36</v>
       </c>
       <c r="E335" s="1">
-        <v>-0.29</v>
+        <v>-0.19</v>
       </c>
       <c r="F335" s="1">
-        <v>-0.6</v>
+        <v>-0.72</v>
       </c>
       <c r="G335" s="1">
-        <v>-0.58</v>
+        <v>-0.63</v>
       </c>
       <c r="H335" s="1">
-        <v>-0.88</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -12195,22 +12195,22 @@
         <v>843</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D336" s="1">
         <v>0.35</v>
       </c>
       <c r="E336" s="1">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="F336" s="1">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="G336" s="1">
-        <v>-0.54</v>
+        <v>-0.37</v>
       </c>
       <c r="H336" s="1">
-        <v>-0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -12221,22 +12221,22 @@
         <v>844</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D337" s="1">
         <v>0.35</v>
       </c>
       <c r="E337" s="1">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="F337" s="1">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="G337" s="1">
-        <v>-0.37</v>
+        <v>-0.54</v>
       </c>
       <c r="H337" s="1">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -12247,22 +12247,22 @@
         <v>845</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D338" s="1">
         <v>0.34</v>
       </c>
       <c r="E338" s="1">
-        <v>-0.24</v>
+        <v>-0.28</v>
       </c>
       <c r="F338" s="1">
-        <v>0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="G338" s="1">
-        <v>0.59</v>
+        <v>-0.44</v>
       </c>
       <c r="H338" s="1">
-        <v>-0.7</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -12273,22 +12273,22 @@
         <v>846</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D339" s="1">
         <v>0.34</v>
       </c>
       <c r="E339" s="1">
-        <v>-0.2</v>
+        <v>-0.27</v>
       </c>
       <c r="F339" s="1">
-        <v>1.64</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G339" s="1">
-        <v>1.15</v>
+        <v>-0.9</v>
       </c>
       <c r="H339" s="1">
-        <v>-0.12</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -12299,22 +12299,22 @@
         <v>847</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D340" s="1">
         <v>0.34</v>
       </c>
       <c r="E340" s="1">
-        <v>-0.27</v>
+        <v>-0.2</v>
       </c>
       <c r="F340" s="1">
-        <v>-0.6899999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="G340" s="1">
-        <v>-0.9</v>
+        <v>1.15</v>
       </c>
       <c r="H340" s="1">
-        <v>-0.6</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -12325,22 +12325,22 @@
         <v>848</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D341" s="1">
         <v>0.34</v>
       </c>
       <c r="E341" s="1">
-        <v>-0.28</v>
+        <v>-0.2</v>
       </c>
       <c r="F341" s="1">
-        <v>-0.62</v>
+        <v>-0.17</v>
       </c>
       <c r="G341" s="1">
-        <v>-0.44</v>
+        <v>-0.23</v>
       </c>
       <c r="H341" s="1">
-        <v>-1.02</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -12377,22 +12377,22 @@
         <v>850</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D343" s="1">
         <v>0.34</v>
       </c>
       <c r="E343" s="1">
-        <v>-0.2</v>
+        <v>-0.24</v>
       </c>
       <c r="F343" s="1">
-        <v>-0.17</v>
+        <v>0.61</v>
       </c>
       <c r="G343" s="1">
-        <v>-0.23</v>
+        <v>0.59</v>
       </c>
       <c r="H343" s="1">
-        <v>-0.53</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -12403,22 +12403,22 @@
         <v>851</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D344" s="1">
         <v>0.33</v>
       </c>
       <c r="E344" s="1">
-        <v>-0.29</v>
+        <v>-0.23</v>
       </c>
       <c r="F344" s="1">
-        <v>0.37</v>
+        <v>-0.87</v>
       </c>
       <c r="G344" s="1">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="H344" s="1">
-        <v>-0.79</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -12429,22 +12429,22 @@
         <v>852</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D345" s="1">
         <v>0.33</v>
       </c>
       <c r="E345" s="1">
-        <v>-0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="F345" s="1">
-        <v>0.63</v>
+        <v>-0.43</v>
       </c>
       <c r="G345" s="1">
-        <v>-0.64</v>
+        <v>-0.85</v>
       </c>
       <c r="H345" s="1">
-        <v>0.64</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -12455,22 +12455,22 @@
         <v>853</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D346" s="1">
         <v>0.33</v>
       </c>
       <c r="E346" s="1">
-        <v>-0.23</v>
+        <v>-0.29</v>
       </c>
       <c r="F346" s="1">
-        <v>-0.87</v>
+        <v>0.37</v>
       </c>
       <c r="G346" s="1">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="H346" s="1">
-        <v>-1.61</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -12481,22 +12481,22 @@
         <v>854</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D347" s="1">
         <v>0.33</v>
       </c>
       <c r="E347" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="F347" s="1">
+        <v>-0.36</v>
+      </c>
+      <c r="G347" s="1">
         <v>-0.26</v>
       </c>
-      <c r="F347" s="1">
-        <v>-0.43</v>
-      </c>
-      <c r="G347" s="1">
-        <v>-0.85</v>
-      </c>
       <c r="H347" s="1">
-        <v>-0.35</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -12507,22 +12507,22 @@
         <v>855</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D348" s="1">
         <v>0.33</v>
       </c>
       <c r="E348" s="1">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="F348" s="1">
-        <v>-0.36</v>
+        <v>0.63</v>
       </c>
       <c r="G348" s="1">
-        <v>-0.26</v>
+        <v>-0.64</v>
       </c>
       <c r="H348" s="1">
-        <v>-0.6899999999999999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -12559,22 +12559,22 @@
         <v>857</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D350" s="1">
         <v>0.32</v>
       </c>
       <c r="E350" s="1">
-        <v>-0.3</v>
+        <v>-0.22</v>
       </c>
       <c r="F350" s="1">
-        <v>-0.98</v>
+        <v>0.55</v>
       </c>
       <c r="G350" s="1">
-        <v>-1.58</v>
+        <v>-0.47</v>
       </c>
       <c r="H350" s="1">
-        <v>-0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -12594,13 +12594,13 @@
         <v>-0.15</v>
       </c>
       <c r="F351" s="1">
-        <v>-0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="G351" s="1">
-        <v>-0.41</v>
+        <v>-0.08</v>
       </c>
       <c r="H351" s="1">
-        <v>-0.24</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -12611,22 +12611,22 @@
         <v>859</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D352" s="1">
         <v>0.32</v>
       </c>
       <c r="E352" s="1">
-        <v>-0.33</v>
+        <v>-0.3</v>
       </c>
       <c r="F352" s="1">
-        <v>0.17</v>
+        <v>-0.98</v>
       </c>
       <c r="G352" s="1">
-        <v>0.34</v>
+        <v>-1.58</v>
       </c>
       <c r="H352" s="1">
-        <v>-1.17</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -12637,22 +12637,22 @@
         <v>860</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D353" s="1">
         <v>0.32</v>
       </c>
       <c r="E353" s="1">
-        <v>-0.22</v>
+        <v>-0.33</v>
       </c>
       <c r="F353" s="1">
-        <v>0.55</v>
+        <v>0.16</v>
       </c>
       <c r="G353" s="1">
-        <v>-0.47</v>
+        <v>0.34</v>
       </c>
       <c r="H353" s="1">
-        <v>0.35</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -12672,13 +12672,13 @@
         <v>-0.15</v>
       </c>
       <c r="F354" s="1">
-        <v>-0.09</v>
+        <v>-0.19</v>
       </c>
       <c r="G354" s="1">
-        <v>-0.08</v>
+        <v>-0.41</v>
       </c>
       <c r="H354" s="1">
-        <v>-0.47</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -12689,22 +12689,22 @@
         <v>862</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D355" s="1">
         <v>0.31</v>
       </c>
       <c r="E355" s="1">
-        <v>-0.22</v>
+        <v>-0.35</v>
       </c>
       <c r="F355" s="1">
-        <v>-0.47</v>
+        <v>1.86</v>
       </c>
       <c r="G355" s="1">
-        <v>-0.61</v>
+        <v>0.97</v>
       </c>
       <c r="H355" s="1">
-        <v>-0.53</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -12715,22 +12715,22 @@
         <v>863</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D356" s="1">
         <v>0.31</v>
       </c>
       <c r="E356" s="1">
-        <v>-0.35</v>
+        <v>-0.31</v>
       </c>
       <c r="F356" s="1">
-        <v>1.86</v>
+        <v>-0.43</v>
       </c>
       <c r="G356" s="1">
-        <v>0.97</v>
+        <v>-0.86</v>
       </c>
       <c r="H356" s="1">
-        <v>-0.15</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -12741,22 +12741,22 @@
         <v>864</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D357" s="1">
         <v>0.31</v>
       </c>
       <c r="E357" s="1">
-        <v>-0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="F357" s="1">
-        <v>-0.43</v>
+        <v>-0.47</v>
       </c>
       <c r="G357" s="1">
-        <v>-0.86</v>
+        <v>-0.61</v>
       </c>
       <c r="H357" s="1">
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -12764,25 +12764,25 @@
         <v>364</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D358" s="1">
         <v>0.3</v>
       </c>
       <c r="E358" s="1">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="F358" s="1">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="G358" s="1">
-        <v>-0.45</v>
+        <v>-0.96</v>
       </c>
       <c r="H358" s="1">
-        <v>-0.51</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12790,7 +12790,7 @@
         <v>365</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>1022</v>
@@ -12816,25 +12816,25 @@
         <v>366</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D360" s="1">
         <v>0.3</v>
       </c>
       <c r="E360" s="1">
-        <v>-0.31</v>
+        <v>-0.25</v>
       </c>
       <c r="F360" s="1">
-        <v>-0.41</v>
+        <v>-0.2</v>
       </c>
       <c r="G360" s="1">
+        <v>-0.45</v>
+      </c>
+      <c r="H360" s="1">
         <v>-0.51</v>
-      </c>
-      <c r="H360" s="1">
-        <v>-0.84</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12842,7 +12842,7 @@
         <v>367</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>1022</v>
@@ -12868,25 +12868,25 @@
         <v>368</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D362" s="1">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="E362" s="1">
-        <v>-0.35</v>
+        <v>-0.31</v>
       </c>
       <c r="F362" s="1">
-        <v>1.68</v>
+        <v>-0.41</v>
       </c>
       <c r="G362" s="1">
-        <v>0.19</v>
+        <v>-0.51</v>
       </c>
       <c r="H362" s="1">
-        <v>0.43</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12894,25 +12894,25 @@
         <v>369</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D363" s="1">
         <v>0.29</v>
       </c>
       <c r="E363" s="1">
-        <v>-0.32</v>
+        <v>-0.35</v>
       </c>
       <c r="F363" s="1">
-        <v>0.67</v>
+        <v>1.68</v>
       </c>
       <c r="G363" s="1">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="H363" s="1">
-        <v>-0.58</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12920,7 +12920,7 @@
         <v>370</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>1013</v>
@@ -12946,25 +12946,25 @@
         <v>371</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D365" s="1">
         <v>0.29</v>
       </c>
       <c r="E365" s="1">
-        <v>-0.26</v>
+        <v>-0.18</v>
       </c>
       <c r="F365" s="1">
-        <v>1.49</v>
+        <v>-0.33</v>
       </c>
       <c r="G365" s="1">
-        <v>0.68</v>
+        <v>-0.84</v>
       </c>
       <c r="H365" s="1">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12972,25 +12972,25 @@
         <v>372</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D366" s="1">
         <v>0.29</v>
       </c>
       <c r="E366" s="1">
-        <v>-0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="F366" s="1">
-        <v>-0.33</v>
+        <v>1.49</v>
       </c>
       <c r="G366" s="1">
-        <v>-0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H366" s="1">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12998,7 +12998,7 @@
         <v>373</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>1017</v>
@@ -13024,25 +13024,25 @@
         <v>374</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D368" s="1">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="E368" s="1">
-        <v>-0.37</v>
+        <v>-0.32</v>
       </c>
       <c r="F368" s="1">
-        <v>-1.15</v>
+        <v>0.67</v>
       </c>
       <c r="G368" s="1">
-        <v>-1.61</v>
+        <v>0.3</v>
       </c>
       <c r="H368" s="1">
-        <v>-0.66</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -13050,7 +13050,7 @@
         <v>375</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>1022</v>
@@ -13076,25 +13076,25 @@
         <v>376</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D370" s="1">
         <v>0.28</v>
       </c>
       <c r="E370" s="1">
-        <v>-0.3</v>
+        <v>-0.38</v>
       </c>
       <c r="F370" s="1">
-        <v>0.96</v>
+        <v>-1.14</v>
       </c>
       <c r="G370" s="1">
-        <v>-0.38</v>
+        <v>-1.61</v>
       </c>
       <c r="H370" s="1">
-        <v>0.43</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -13102,25 +13102,25 @@
         <v>377</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D371" s="1">
         <v>0.28</v>
       </c>
       <c r="E371" s="1">
-        <v>-0.33</v>
+        <v>-0.3</v>
       </c>
       <c r="F371" s="1">
-        <v>-0.63</v>
+        <v>0.96</v>
       </c>
       <c r="G371" s="1">
-        <v>-1.13</v>
+        <v>-0.38</v>
       </c>
       <c r="H371" s="1">
-        <v>-0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -13128,25 +13128,25 @@
         <v>378</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D372" s="1">
         <v>0.28</v>
       </c>
       <c r="E372" s="1">
-        <v>-0.23</v>
+        <v>-0.3</v>
       </c>
       <c r="F372" s="1">
-        <v>0.4</v>
+        <v>-0.87</v>
       </c>
       <c r="G372" s="1">
-        <v>-0.39</v>
+        <v>-1.45</v>
       </c>
       <c r="H372" s="1">
-        <v>0.09</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -13154,25 +13154,25 @@
         <v>379</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D373" s="1">
         <v>0.28</v>
       </c>
       <c r="E373" s="1">
-        <v>-0.3</v>
+        <v>-0.33</v>
       </c>
       <c r="F373" s="1">
-        <v>-0.87</v>
+        <v>-0.63</v>
       </c>
       <c r="G373" s="1">
-        <v>-1.45</v>
+        <v>-1.13</v>
       </c>
       <c r="H373" s="1">
-        <v>-0.32</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -13180,25 +13180,25 @@
         <v>380</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>832</v>
+        <v>880</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D374" s="1">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="E374" s="1">
-        <v>-0.23</v>
+        <v>-0.19</v>
       </c>
       <c r="F374" s="1">
-        <v>-0.7</v>
+        <v>-0.83</v>
       </c>
       <c r="G374" s="1">
-        <v>-0.96</v>
+        <v>-0.4</v>
       </c>
       <c r="H374" s="1">
-        <v>-0.42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -13209,22 +13209,22 @@
         <v>881</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D375" s="1">
         <v>0.27</v>
       </c>
       <c r="E375" s="1">
-        <v>-0.41</v>
+        <v>-0.19</v>
       </c>
       <c r="F375" s="1">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
       <c r="G375" s="1">
-        <v>-1.06</v>
+        <v>0.01</v>
       </c>
       <c r="H375" s="1">
-        <v>-0.02</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -13235,22 +13235,22 @@
         <v>882</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D376" s="1">
         <v>0.27</v>
       </c>
       <c r="E376" s="1">
-        <v>-0.19</v>
+        <v>-0.39</v>
       </c>
       <c r="F376" s="1">
-        <v>-0.08</v>
+        <v>1</v>
       </c>
       <c r="G376" s="1">
-        <v>0.01</v>
+        <v>-0.18</v>
       </c>
       <c r="H376" s="1">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -13261,22 +13261,22 @@
         <v>883</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D377" s="1">
         <v>0.27</v>
       </c>
       <c r="E377" s="1">
-        <v>-0.19</v>
+        <v>-0.29</v>
       </c>
       <c r="F377" s="1">
-        <v>-0.83</v>
+        <v>1.22</v>
       </c>
       <c r="G377" s="1">
-        <v>-0.4</v>
+        <v>0.03</v>
       </c>
       <c r="H377" s="1">
-        <v>-1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -13287,22 +13287,22 @@
         <v>884</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D378" s="1">
         <v>0.27</v>
       </c>
       <c r="E378" s="1">
-        <v>-0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="F378" s="1">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="G378" s="1">
-        <v>-0.18</v>
+        <v>-0.35</v>
       </c>
       <c r="H378" s="1">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -13313,22 +13313,22 @@
         <v>885</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D379" s="1">
         <v>0.27</v>
       </c>
       <c r="E379" s="1">
-        <v>-0.29</v>
+        <v>-0.41</v>
       </c>
       <c r="F379" s="1">
-        <v>1.22</v>
+        <v>0.15</v>
       </c>
       <c r="G379" s="1">
-        <v>0.03</v>
+        <v>-1.06</v>
       </c>
       <c r="H379" s="1">
-        <v>0.33</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -13339,22 +13339,22 @@
         <v>886</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="D380" s="1">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E380" s="1">
-        <v>-0.41</v>
+        <v>-0.28</v>
       </c>
       <c r="F380" s="1">
-        <v>0.33</v>
+        <v>1.97</v>
       </c>
       <c r="G380" s="1">
-        <v>-0.35</v>
+        <v>1.27</v>
       </c>
       <c r="H380" s="1">
-        <v>-0.5600000000000001</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -13365,22 +13365,22 @@
         <v>887</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D381" s="1">
         <v>0.26</v>
       </c>
       <c r="E381" s="1">
-        <v>-0.28</v>
+        <v>-0.24</v>
       </c>
       <c r="F381" s="1">
-        <v>1.97</v>
+        <v>0.41</v>
       </c>
       <c r="G381" s="1">
-        <v>1.27</v>
+        <v>-0.39</v>
       </c>
       <c r="H381" s="1">
-        <v>-0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -13469,22 +13469,22 @@
         <v>891</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D385" s="1">
         <v>0.25</v>
       </c>
       <c r="E385" s="1">
-        <v>-0.31</v>
+        <v>-0.2</v>
       </c>
       <c r="F385" s="1">
-        <v>0.08</v>
+        <v>-0.4</v>
       </c>
       <c r="G385" s="1">
-        <v>-0.47</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="H385" s="1">
-        <v>-0.39</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -13495,22 +13495,22 @@
         <v>892</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D386" s="1">
         <v>0.25</v>
       </c>
       <c r="E386" s="1">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="F386" s="1">
-        <v>-0.4</v>
+        <v>-0.87</v>
       </c>
       <c r="G386" s="1">
-        <v>-0.6899999999999999</v>
+        <v>-0.53</v>
       </c>
       <c r="H386" s="1">
-        <v>-0.3</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -13547,22 +13547,22 @@
         <v>894</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D388" s="1">
         <v>0.25</v>
       </c>
       <c r="E388" s="1">
-        <v>-0.43</v>
+        <v>-0.31</v>
       </c>
       <c r="F388" s="1">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G388" s="1">
-        <v>-0.27</v>
+        <v>-0.47</v>
       </c>
       <c r="H388" s="1">
-        <v>-1.15</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -13573,22 +13573,22 @@
         <v>895</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="D389" s="1">
         <v>0.25</v>
       </c>
       <c r="E389" s="1">
-        <v>-0.4</v>
+        <v>-0.43</v>
       </c>
       <c r="F389" s="1">
-        <v>-0.87</v>
+        <v>-0.13</v>
       </c>
       <c r="G389" s="1">
-        <v>-0.53</v>
+        <v>-0.27</v>
       </c>
       <c r="H389" s="1">
-        <v>-1.53</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -13625,22 +13625,22 @@
         <v>897</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D391" s="1">
         <v>0.24</v>
       </c>
       <c r="E391" s="1">
-        <v>-0.29</v>
+        <v>-0.4</v>
       </c>
       <c r="F391" s="1">
-        <v>0.74</v>
+        <v>-0.09</v>
       </c>
       <c r="G391" s="1">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="H391" s="1">
-        <v>0.88</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -13651,22 +13651,22 @@
         <v>898</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="D392" s="1">
         <v>0.24</v>
       </c>
       <c r="E392" s="1">
-        <v>-0.4</v>
+        <v>-0.29</v>
       </c>
       <c r="F392" s="1">
-        <v>-0.1</v>
+        <v>0.74</v>
       </c>
       <c r="G392" s="1">
-        <v>-0.95</v>
+        <v>-1</v>
       </c>
       <c r="H392" s="1">
-        <v>-0.35</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -13712,13 +13712,13 @@
         <v>-0.46</v>
       </c>
       <c r="F394" s="1">
-        <v>-1.22</v>
+        <v>-1.03</v>
       </c>
       <c r="G394" s="1">
-        <v>-0.91</v>
+        <v>-1.33</v>
       </c>
       <c r="H394" s="1">
-        <v>-1.7</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -13729,22 +13729,22 @@
         <v>901</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D395" s="1">
         <v>0.23</v>
       </c>
       <c r="E395" s="1">
-        <v>-0.31</v>
+        <v>-0.46</v>
       </c>
       <c r="F395" s="1">
-        <v>0.25</v>
+        <v>-1.22</v>
       </c>
       <c r="G395" s="1">
-        <v>0.01</v>
+        <v>-0.91</v>
       </c>
       <c r="H395" s="1">
-        <v>-0.68</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -13755,22 +13755,22 @@
         <v>902</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D396" s="1">
         <v>0.23</v>
       </c>
       <c r="E396" s="1">
-        <v>-0.46</v>
+        <v>-0.31</v>
       </c>
       <c r="F396" s="1">
-        <v>-1.03</v>
+        <v>0.25</v>
       </c>
       <c r="G396" s="1">
-        <v>-1.33</v>
+        <v>0.01</v>
       </c>
       <c r="H396" s="1">
-        <v>-1.08</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13781,22 +13781,22 @@
         <v>903</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D397" s="1">
         <v>0.22</v>
       </c>
       <c r="E397" s="1">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="F397" s="1">
-        <v>-0.02</v>
+        <v>-0.55</v>
       </c>
       <c r="G397" s="1">
-        <v>-0.57</v>
+        <v>-0.9</v>
       </c>
       <c r="H397" s="1">
-        <v>-0.43</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13807,22 +13807,22 @@
         <v>904</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D398" s="1">
         <v>0.22</v>
       </c>
       <c r="E398" s="1">
-        <v>-0.21</v>
+        <v>-0.33</v>
       </c>
       <c r="F398" s="1">
-        <v>-0.76</v>
+        <v>-0.02</v>
       </c>
       <c r="G398" s="1">
-        <v>-1.16</v>
+        <v>-0.57</v>
       </c>
       <c r="H398" s="1">
-        <v>-0.23</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13833,22 +13833,22 @@
         <v>905</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D399" s="1">
         <v>0.22</v>
       </c>
       <c r="E399" s="1">
-        <v>-0.34</v>
+        <v>-0.37</v>
       </c>
       <c r="F399" s="1">
-        <v>-0.55</v>
+        <v>-0.19</v>
       </c>
       <c r="G399" s="1">
-        <v>-0.9</v>
+        <v>-0.14</v>
       </c>
       <c r="H399" s="1">
-        <v>-0.68</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13859,22 +13859,22 @@
         <v>906</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D400" s="1">
         <v>0.22</v>
       </c>
       <c r="E400" s="1">
-        <v>-0.37</v>
+        <v>-0.21</v>
       </c>
       <c r="F400" s="1">
-        <v>-0.19</v>
+        <v>-0.76</v>
       </c>
       <c r="G400" s="1">
-        <v>-0.14</v>
+        <v>-1.16</v>
       </c>
       <c r="H400" s="1">
-        <v>-1.15</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13937,22 +13937,22 @@
         <v>909</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D403" s="1">
         <v>0.21</v>
       </c>
       <c r="E403" s="1">
-        <v>-0.47</v>
+        <v>-0.44</v>
       </c>
       <c r="F403" s="1">
-        <v>2.82</v>
+        <v>-0.02</v>
       </c>
       <c r="G403" s="1">
-        <v>0.31</v>
+        <v>-1.36</v>
       </c>
       <c r="H403" s="1">
-        <v>1.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13963,22 +13963,22 @@
         <v>910</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D404" s="1">
         <v>0.21</v>
       </c>
       <c r="E404" s="1">
-        <v>-0.44</v>
+        <v>-0.52</v>
       </c>
       <c r="F404" s="1">
-        <v>1.08</v>
+        <v>-1.49</v>
       </c>
       <c r="G404" s="1">
-        <v>-0.19</v>
+        <v>-1.15</v>
       </c>
       <c r="H404" s="1">
-        <v>-0.06</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13989,22 +13989,22 @@
         <v>911</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D405" s="1">
         <v>0.21</v>
       </c>
       <c r="E405" s="1">
-        <v>-0.42</v>
+        <v>-0.52</v>
       </c>
       <c r="F405" s="1">
-        <v>1.69</v>
+        <v>1.11</v>
       </c>
       <c r="G405" s="1">
-        <v>-0.01</v>
+        <v>-0.29</v>
       </c>
       <c r="H405" s="1">
-        <v>0.45</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -14015,22 +14015,22 @@
         <v>912</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D406" s="1">
         <v>0.21</v>
       </c>
       <c r="E406" s="1">
-        <v>-0.41</v>
+        <v>-0.44</v>
       </c>
       <c r="F406" s="1">
-        <v>-1.17</v>
+        <v>1.08</v>
       </c>
       <c r="G406" s="1">
-        <v>-1.41</v>
+        <v>-0.19</v>
       </c>
       <c r="H406" s="1">
-        <v>-0.98</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -14041,22 +14041,22 @@
         <v>913</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D407" s="1">
         <v>0.21</v>
       </c>
       <c r="E407" s="1">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="F407" s="1">
-        <v>-0.02</v>
+        <v>0.52</v>
       </c>
       <c r="G407" s="1">
-        <v>-1.36</v>
+        <v>-0.82</v>
       </c>
       <c r="H407" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -14067,22 +14067,22 @@
         <v>914</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D408" s="1">
         <v>0.21</v>
       </c>
       <c r="E408" s="1">
-        <v>-0.43</v>
+        <v>-0.41</v>
       </c>
       <c r="F408" s="1">
-        <v>0.53</v>
+        <v>-1.16</v>
       </c>
       <c r="G408" s="1">
-        <v>-0.82</v>
+        <v>-1.41</v>
       </c>
       <c r="H408" s="1">
-        <v>0.05</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -14093,22 +14093,22 @@
         <v>915</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D409" s="1">
         <v>0.21</v>
       </c>
       <c r="E409" s="1">
-        <v>-0.52</v>
+        <v>-0.47</v>
       </c>
       <c r="F409" s="1">
-        <v>-1.49</v>
+        <v>2.82</v>
       </c>
       <c r="G409" s="1">
-        <v>-1.15</v>
+        <v>0.31</v>
       </c>
       <c r="H409" s="1">
-        <v>-1.91</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -14119,22 +14119,22 @@
         <v>916</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D410" s="1">
         <v>0.21</v>
       </c>
       <c r="E410" s="1">
-        <v>-0.52</v>
+        <v>-0.42</v>
       </c>
       <c r="F410" s="1">
-        <v>1.11</v>
+        <v>1.69</v>
       </c>
       <c r="G410" s="1">
-        <v>-0.29</v>
+        <v>-0.01</v>
       </c>
       <c r="H410" s="1">
-        <v>-0.16</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -14145,22 +14145,22 @@
         <v>917</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D411" s="1">
         <v>0.2</v>
       </c>
       <c r="E411" s="1">
-        <v>-0.26</v>
+        <v>-0.45</v>
       </c>
       <c r="F411" s="1">
-        <v>-0.17</v>
+        <v>-0.63</v>
       </c>
       <c r="G411" s="1">
-        <v>-0.48</v>
+        <v>-1.22</v>
       </c>
       <c r="H411" s="1">
-        <v>-0.46</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -14171,22 +14171,22 @@
         <v>918</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D412" s="1">
         <v>0.2</v>
       </c>
       <c r="E412" s="1">
-        <v>-0.34</v>
+        <v>-0.26</v>
       </c>
       <c r="F412" s="1">
-        <v>0.25</v>
+        <v>-0.17</v>
       </c>
       <c r="G412" s="1">
-        <v>-1.17</v>
+        <v>-0.48</v>
       </c>
       <c r="H412" s="1">
-        <v>0.41</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -14197,22 +14197,22 @@
         <v>919</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D413" s="1">
         <v>0.2</v>
       </c>
       <c r="E413" s="1">
-        <v>-0.45</v>
+        <v>-0.34</v>
       </c>
       <c r="F413" s="1">
-        <v>-0.63</v>
+        <v>0.25</v>
       </c>
       <c r="G413" s="1">
-        <v>-1.22</v>
+        <v>-1.17</v>
       </c>
       <c r="H413" s="1">
-        <v>-0.75</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -14223,22 +14223,22 @@
         <v>920</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D414" s="1">
         <v>0.19</v>
       </c>
       <c r="E414" s="1">
-        <v>-0.39</v>
+        <v>-0.48</v>
       </c>
       <c r="F414" s="1">
-        <v>-0.78</v>
+        <v>2.19</v>
       </c>
       <c r="G414" s="1">
-        <v>-0.91</v>
+        <v>-0.64</v>
       </c>
       <c r="H414" s="1">
-        <v>-1.05</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -14249,22 +14249,22 @@
         <v>921</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D415" s="1">
         <v>0.19</v>
       </c>
       <c r="E415" s="1">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="F415" s="1">
-        <v>2.19</v>
+        <v>-0.09</v>
       </c>
       <c r="G415" s="1">
-        <v>-0.64</v>
+        <v>-1.25</v>
       </c>
       <c r="H415" s="1">
-        <v>1.38</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -14275,22 +14275,22 @@
         <v>922</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D416" s="1">
         <v>0.19</v>
       </c>
       <c r="E416" s="1">
-        <v>-0.47</v>
+        <v>-0.41</v>
       </c>
       <c r="F416" s="1">
-        <v>-0.09</v>
+        <v>-0.21</v>
       </c>
       <c r="G416" s="1">
-        <v>-1.25</v>
+        <v>-0.9</v>
       </c>
       <c r="H416" s="1">
-        <v>-0.24</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -14301,22 +14301,22 @@
         <v>923</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D417" s="1">
         <v>0.19</v>
       </c>
       <c r="E417" s="1">
-        <v>-0.46</v>
+        <v>-0.39</v>
       </c>
       <c r="F417" s="1">
-        <v>0.16</v>
+        <v>-0.78</v>
       </c>
       <c r="G417" s="1">
-        <v>-0.38</v>
+        <v>-0.91</v>
       </c>
       <c r="H417" s="1">
-        <v>-0.83</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -14327,22 +14327,22 @@
         <v>924</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D418" s="1">
         <v>0.19</v>
       </c>
       <c r="E418" s="1">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="F418" s="1">
-        <v>-0.82</v>
+        <v>0.16</v>
       </c>
       <c r="G418" s="1">
-        <v>-1.27</v>
+        <v>-0.38</v>
       </c>
       <c r="H418" s="1">
-        <v>-1.03</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -14353,22 +14353,22 @@
         <v>925</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D419" s="1">
         <v>0.19</v>
       </c>
       <c r="E419" s="1">
-        <v>-0.41</v>
+        <v>-0.49</v>
       </c>
       <c r="F419" s="1">
-        <v>-0.21</v>
+        <v>-0.82</v>
       </c>
       <c r="G419" s="1">
-        <v>-0.9</v>
+        <v>-1.27</v>
       </c>
       <c r="H419" s="1">
-        <v>-0.54</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -14379,22 +14379,22 @@
         <v>926</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D420" s="1">
         <v>0.18</v>
       </c>
       <c r="E420" s="1">
-        <v>-0.57</v>
+        <v>-0.47</v>
       </c>
       <c r="F420" s="1">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="G420" s="1">
-        <v>0.03</v>
+        <v>-0.9</v>
       </c>
       <c r="H420" s="1">
-        <v>-1.53</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -14431,22 +14431,22 @@
         <v>928</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D422" s="1">
         <v>0.18</v>
       </c>
       <c r="E422" s="1">
-        <v>-0.47</v>
+        <v>-0.57</v>
       </c>
       <c r="F422" s="1">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="G422" s="1">
-        <v>-0.9</v>
+        <v>0.03</v>
       </c>
       <c r="H422" s="1">
-        <v>-0.47</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -14483,22 +14483,22 @@
         <v>930</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="D424" s="1">
         <v>0.17</v>
       </c>
       <c r="E424" s="1">
-        <v>-0.43</v>
+        <v>-0.5</v>
       </c>
       <c r="F424" s="1">
-        <v>-0.27</v>
+        <v>-0.82</v>
       </c>
       <c r="G424" s="1">
-        <v>-0.97</v>
+        <v>-1.93</v>
       </c>
       <c r="H424" s="1">
-        <v>-0.58</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -14509,22 +14509,22 @@
         <v>931</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D425" s="1">
         <v>0.17</v>
       </c>
       <c r="E425" s="1">
-        <v>-0.52</v>
+        <v>-0.43</v>
       </c>
       <c r="F425" s="1">
-        <v>0.86</v>
+        <v>-0.26</v>
       </c>
       <c r="G425" s="1">
-        <v>-0.01</v>
+        <v>-0.97</v>
       </c>
       <c r="H425" s="1">
-        <v>-0.68</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -14535,22 +14535,22 @@
         <v>932</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="D426" s="1">
         <v>0.17</v>
       </c>
       <c r="E426" s="1">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="F426" s="1">
-        <v>-0.82</v>
+        <v>0.86</v>
       </c>
       <c r="G426" s="1">
-        <v>-1.93</v>
+        <v>-0.01</v>
       </c>
       <c r="H426" s="1">
-        <v>-0.4</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -14587,22 +14587,22 @@
         <v>934</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="D428" s="1">
         <v>0.16</v>
       </c>
       <c r="E428" s="1">
-        <v>-0.43</v>
+        <v>-0.51</v>
       </c>
       <c r="F428" s="1">
-        <v>-0.05</v>
+        <v>-0.38</v>
       </c>
       <c r="G428" s="1">
-        <v>-1.58</v>
+        <v>-1.46</v>
       </c>
       <c r="H428" s="1">
-        <v>0.25</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -14622,13 +14622,13 @@
         <v>-0.43</v>
       </c>
       <c r="F429" s="1">
-        <v>2.42</v>
+        <v>-0.05</v>
       </c>
       <c r="G429" s="1">
-        <v>1.27</v>
+        <v>-1.58</v>
       </c>
       <c r="H429" s="1">
-        <v>-0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -14639,22 +14639,22 @@
         <v>936</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="D430" s="1">
         <v>0.16</v>
       </c>
       <c r="E430" s="1">
-        <v>-0.5600000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="F430" s="1">
-        <v>1.11</v>
+        <v>2.42</v>
       </c>
       <c r="G430" s="1">
-        <v>-1.54</v>
+        <v>1.27</v>
       </c>
       <c r="H430" s="1">
-        <v>0.97</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -14665,22 +14665,22 @@
         <v>937</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D431" s="1">
         <v>0.16</v>
       </c>
       <c r="E431" s="1">
-        <v>-0.59</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F431" s="1">
-        <v>1.97</v>
+        <v>1.11</v>
       </c>
       <c r="G431" s="1">
-        <v>-0.14</v>
+        <v>-1.54</v>
       </c>
       <c r="H431" s="1">
-        <v>0.35</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -14717,22 +14717,22 @@
         <v>939</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D433" s="1">
         <v>0.16</v>
       </c>
       <c r="E433" s="1">
-        <v>-0.5</v>
+        <v>-0.59</v>
       </c>
       <c r="F433" s="1">
-        <v>0.39</v>
+        <v>1.97</v>
       </c>
       <c r="G433" s="1">
-        <v>-0.64</v>
+        <v>-0.14</v>
       </c>
       <c r="H433" s="1">
-        <v>-0.48</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -14743,22 +14743,22 @@
         <v>940</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D434" s="1">
         <v>0.16</v>
       </c>
       <c r="E434" s="1">
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="F434" s="1">
-        <v>-0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G434" s="1">
-        <v>-1.46</v>
+        <v>-0.64</v>
       </c>
       <c r="H434" s="1">
-        <v>-0.45</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -14795,22 +14795,22 @@
         <v>942</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D436" s="1">
         <v>0.15</v>
       </c>
       <c r="E436" s="1">
-        <v>-0.33</v>
+        <v>-0.44</v>
       </c>
       <c r="F436" s="1">
-        <v>-0.27</v>
+        <v>-0.02</v>
       </c>
       <c r="G436" s="1">
-        <v>-1.32</v>
+        <v>-0.51</v>
       </c>
       <c r="H436" s="1">
-        <v>0.05</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14821,22 +14821,22 @@
         <v>943</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D437" s="1">
         <v>0.15</v>
       </c>
       <c r="E437" s="1">
-        <v>-0.44</v>
+        <v>-0.33</v>
       </c>
       <c r="F437" s="1">
-        <v>-0.02</v>
+        <v>-0.27</v>
       </c>
       <c r="G437" s="1">
-        <v>-0.51</v>
+        <v>-1.32</v>
       </c>
       <c r="H437" s="1">
-        <v>-0.84</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14847,22 +14847,22 @@
         <v>944</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D438" s="1">
         <v>0.14</v>
       </c>
       <c r="E438" s="1">
-        <v>-0.51</v>
+        <v>-0.65</v>
       </c>
       <c r="F438" s="1">
-        <v>0.48</v>
+        <v>0.84</v>
       </c>
       <c r="G438" s="1">
-        <v>-0.76</v>
+        <v>-1.01</v>
       </c>
       <c r="H438" s="1">
-        <v>-0.29</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14873,22 +14873,22 @@
         <v>945</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D439" s="1">
         <v>0.14</v>
       </c>
       <c r="E439" s="1">
-        <v>-0.57</v>
+        <v>-0.54</v>
       </c>
       <c r="F439" s="1">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="G439" s="1">
-        <v>-1.09</v>
+        <v>-0.92</v>
       </c>
       <c r="H439" s="1">
-        <v>-0.39</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14899,22 +14899,22 @@
         <v>946</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D440" s="1">
         <v>0.14</v>
       </c>
       <c r="E440" s="1">
-        <v>-0.72</v>
+        <v>-0.57</v>
       </c>
       <c r="F440" s="1">
-        <v>1.44</v>
+        <v>0.24</v>
       </c>
       <c r="G440" s="1">
-        <v>0.23</v>
+        <v>-1.09</v>
       </c>
       <c r="H440" s="1">
-        <v>-0.95</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14925,22 +14925,22 @@
         <v>947</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D441" s="1">
         <v>0.14</v>
       </c>
       <c r="E441" s="1">
-        <v>-0.55</v>
+        <v>-0.47</v>
       </c>
       <c r="F441" s="1">
-        <v>0.43</v>
+        <v>2.77</v>
       </c>
       <c r="G441" s="1">
-        <v>-0.92</v>
+        <v>1.27</v>
       </c>
       <c r="H441" s="1">
-        <v>-0.3</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14951,22 +14951,22 @@
         <v>948</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D442" s="1">
         <v>0.14</v>
       </c>
       <c r="E442" s="1">
-        <v>-0.34</v>
+        <v>-0.6</v>
       </c>
       <c r="F442" s="1">
-        <v>-0.59</v>
+        <v>3</v>
       </c>
       <c r="G442" s="1">
-        <v>-0.74</v>
+        <v>0.74</v>
       </c>
       <c r="H442" s="1">
-        <v>-0.88</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14977,22 +14977,22 @@
         <v>949</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D443" s="1">
         <v>0.14</v>
       </c>
       <c r="E443" s="1">
-        <v>-0.6</v>
+        <v>-0.34</v>
       </c>
       <c r="F443" s="1">
-        <v>3</v>
+        <v>-0.59</v>
       </c>
       <c r="G443" s="1">
-        <v>0.74</v>
+        <v>-0.74</v>
       </c>
       <c r="H443" s="1">
-        <v>0.45</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -15003,22 +15003,22 @@
         <v>950</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D444" s="1">
         <v>0.14</v>
       </c>
       <c r="E444" s="1">
-        <v>-0.47</v>
+        <v>-0.72</v>
       </c>
       <c r="F444" s="1">
-        <v>2.77</v>
+        <v>1.44</v>
       </c>
       <c r="G444" s="1">
-        <v>1.27</v>
+        <v>0.23</v>
       </c>
       <c r="H444" s="1">
-        <v>0.09</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -15029,22 +15029,22 @@
         <v>951</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="D445" s="1">
         <v>0.14</v>
       </c>
       <c r="E445" s="1">
-        <v>-0.65</v>
+        <v>-0.51</v>
       </c>
       <c r="F445" s="1">
-        <v>0.84</v>
+        <v>0.48</v>
       </c>
       <c r="G445" s="1">
-        <v>-1.01</v>
+        <v>-0.76</v>
       </c>
       <c r="H445" s="1">
-        <v>-0.11</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -15090,13 +15090,13 @@
         <v>-0.54</v>
       </c>
       <c r="F447" s="1">
-        <v>0.01</v>
+        <v>1.3</v>
       </c>
       <c r="G447" s="1">
-        <v>-1.26</v>
+        <v>-0.98</v>
       </c>
       <c r="H447" s="1">
-        <v>-0.35</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -15133,22 +15133,22 @@
         <v>955</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D449" s="1">
         <v>0.12</v>
       </c>
       <c r="E449" s="1">
-        <v>-0.58</v>
+        <v>-0.54</v>
       </c>
       <c r="F449" s="1">
-        <v>0.86</v>
+        <v>-0.34</v>
       </c>
       <c r="G449" s="1">
-        <v>0.05</v>
+        <v>-1.46</v>
       </c>
       <c r="H449" s="1">
-        <v>-0.9399999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -15168,13 +15168,13 @@
         <v>-0.54</v>
       </c>
       <c r="F450" s="1">
-        <v>1.3</v>
+        <v>0.01</v>
       </c>
       <c r="G450" s="1">
-        <v>-0.98</v>
+        <v>-1.26</v>
       </c>
       <c r="H450" s="1">
-        <v>0.67</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -15185,7 +15185,7 @@
         <v>957</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D451" s="1">
         <v>0.12</v>
@@ -15194,13 +15194,13 @@
         <v>-0.54</v>
       </c>
       <c r="F451" s="1">
-        <v>-0.34</v>
+        <v>-0.48</v>
       </c>
       <c r="G451" s="1">
-        <v>-1.46</v>
+        <v>-1.47</v>
       </c>
       <c r="H451" s="1">
-        <v>-0.5</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -15211,22 +15211,22 @@
         <v>958</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="D452" s="1">
         <v>0.12</v>
       </c>
       <c r="E452" s="1">
-        <v>-0.54</v>
+        <v>-0.58</v>
       </c>
       <c r="F452" s="1">
-        <v>-0.48</v>
+        <v>0.86</v>
       </c>
       <c r="G452" s="1">
-        <v>-1.47</v>
+        <v>0.05</v>
       </c>
       <c r="H452" s="1">
-        <v>-0.62</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -15263,22 +15263,22 @@
         <v>960</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D454" s="1">
         <v>0.11</v>
       </c>
       <c r="E454" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="F454" s="1">
+        <v>-0.49</v>
+      </c>
+      <c r="G454" s="1">
+        <v>-1.81</v>
+      </c>
+      <c r="H454" s="1">
         <v>-0.63</v>
-      </c>
-      <c r="F454" s="1">
-        <v>-0.55</v>
-      </c>
-      <c r="G454" s="1">
-        <v>-2.3</v>
-      </c>
-      <c r="H454" s="1">
-        <v>-0.15</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -15315,22 +15315,22 @@
         <v>962</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D456" s="1">
         <v>0.11</v>
       </c>
       <c r="E456" s="1">
-        <v>-0.47</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F456" s="1">
-        <v>2.48</v>
+        <v>-1.15</v>
       </c>
       <c r="G456" s="1">
-        <v>-0.85</v>
+        <v>0.17</v>
       </c>
       <c r="H456" s="1">
-        <v>1.91</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -15367,22 +15367,22 @@
         <v>964</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D458" s="1">
         <v>0.11</v>
       </c>
       <c r="E458" s="1">
-        <v>-0.65</v>
+        <v>-0.47</v>
       </c>
       <c r="F458" s="1">
-        <v>-0.49</v>
+        <v>2.48</v>
       </c>
       <c r="G458" s="1">
-        <v>-1.81</v>
+        <v>-0.85</v>
       </c>
       <c r="H458" s="1">
-        <v>-0.63</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -15393,22 +15393,22 @@
         <v>965</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D459" s="1">
         <v>0.11</v>
       </c>
       <c r="E459" s="1">
-        <v>-0.51</v>
+        <v>-0.63</v>
       </c>
       <c r="F459" s="1">
-        <v>-0.83</v>
+        <v>-0.55</v>
       </c>
       <c r="G459" s="1">
-        <v>-0.1</v>
+        <v>-2.3</v>
       </c>
       <c r="H459" s="1">
-        <v>-2.26</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -15419,22 +15419,22 @@
         <v>966</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D460" s="1">
         <v>0.11</v>
       </c>
       <c r="E460" s="1">
-        <v>-0.5600000000000001</v>
+        <v>-0.51</v>
       </c>
       <c r="F460" s="1">
-        <v>-1.15</v>
+        <v>-0.83</v>
       </c>
       <c r="G460" s="1">
-        <v>0.17</v>
+        <v>-0.1</v>
       </c>
       <c r="H460" s="1">
-        <v>-3</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -15445,22 +15445,22 @@
         <v>967</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D461" s="1">
         <v>0.1</v>
       </c>
       <c r="E461" s="1">
-        <v>-0.71</v>
+        <v>-0.82</v>
       </c>
       <c r="F461" s="1">
-        <v>-1.19</v>
+        <v>1.27</v>
       </c>
       <c r="G461" s="1">
-        <v>-1.72</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H461" s="1">
-        <v>-1.59</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -15506,7 +15506,7 @@
         <v>-0.59</v>
       </c>
       <c r="F463" s="1">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="G463" s="1">
         <v>1.06</v>
@@ -15523,22 +15523,22 @@
         <v>970</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D464" s="1">
         <v>0.1</v>
       </c>
       <c r="E464" s="1">
-        <v>-0.82</v>
+        <v>-0.71</v>
       </c>
       <c r="F464" s="1">
-        <v>1.27</v>
+        <v>-1.19</v>
       </c>
       <c r="G464" s="1">
-        <v>-0.8100000000000001</v>
+        <v>-1.72</v>
       </c>
       <c r="H464" s="1">
-        <v>-0.39</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -15575,22 +15575,22 @@
         <v>972</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D466" s="1">
         <v>0.09</v>
       </c>
       <c r="E466" s="1">
-        <v>-0.62</v>
+        <v>-0.65</v>
       </c>
       <c r="F466" s="1">
-        <v>1.36</v>
+        <v>-0.59</v>
       </c>
       <c r="G466" s="1">
-        <v>-0.23</v>
+        <v>-1.7</v>
       </c>
       <c r="H466" s="1">
-        <v>-0.28</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -15601,22 +15601,22 @@
         <v>973</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D467" s="1">
         <v>0.09</v>
       </c>
       <c r="E467" s="1">
-        <v>-0.65</v>
+        <v>-0.62</v>
       </c>
       <c r="F467" s="1">
-        <v>-0.59</v>
+        <v>1.36</v>
       </c>
       <c r="G467" s="1">
-        <v>-1.7</v>
+        <v>-0.23</v>
       </c>
       <c r="H467" s="1">
-        <v>-0.85</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -15653,22 +15653,22 @@
         <v>975</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D469" s="1">
         <v>0.08</v>
       </c>
       <c r="E469" s="1">
-        <v>-0.64</v>
+        <v>-0.92</v>
       </c>
       <c r="F469" s="1">
-        <v>-0.08</v>
+        <v>-0.28</v>
       </c>
       <c r="G469" s="1">
-        <v>-1.58</v>
+        <v>-1.72</v>
       </c>
       <c r="H469" s="1">
-        <v>-0.42</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -15679,22 +15679,22 @@
         <v>976</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D470" s="1">
         <v>0.08</v>
       </c>
       <c r="E470" s="1">
-        <v>-0.92</v>
+        <v>-0.87</v>
       </c>
       <c r="F470" s="1">
-        <v>-0.28</v>
+        <v>1.05</v>
       </c>
       <c r="G470" s="1">
-        <v>-1.72</v>
+        <v>-1.13</v>
       </c>
       <c r="H470" s="1">
-        <v>-1.31</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -15705,22 +15705,22 @@
         <v>977</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D471" s="1">
         <v>0.08</v>
       </c>
       <c r="E471" s="1">
-        <v>-0.87</v>
+        <v>-0.76</v>
       </c>
       <c r="F471" s="1">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="G471" s="1">
-        <v>-1.13</v>
+        <v>-0.72</v>
       </c>
       <c r="H471" s="1">
-        <v>-0.43</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -15757,22 +15757,22 @@
         <v>979</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D473" s="1">
         <v>0.08</v>
       </c>
       <c r="E473" s="1">
-        <v>-0.76</v>
+        <v>-0.64</v>
       </c>
       <c r="F473" s="1">
-        <v>1.39</v>
+        <v>-0.08</v>
       </c>
       <c r="G473" s="1">
-        <v>-0.72</v>
+        <v>-1.58</v>
       </c>
       <c r="H473" s="1">
-        <v>-0.17</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -15809,22 +15809,22 @@
         <v>981</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D475" s="1">
         <v>0.07000000000000001</v>
       </c>
       <c r="E475" s="1">
-        <v>-0.83</v>
+        <v>-0.54</v>
       </c>
       <c r="F475" s="1">
-        <v>1.22</v>
+        <v>0.66</v>
       </c>
       <c r="G475" s="1">
-        <v>-0.92</v>
+        <v>-1.51</v>
       </c>
       <c r="H475" s="1">
-        <v>-0.34</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15835,22 +15835,22 @@
         <v>982</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="D476" s="1">
         <v>0.07000000000000001</v>
       </c>
       <c r="E476" s="1">
-        <v>-0.54</v>
+        <v>-0.83</v>
       </c>
       <c r="F476" s="1">
-        <v>0.66</v>
+        <v>1.22</v>
       </c>
       <c r="G476" s="1">
-        <v>-1.51</v>
+        <v>-0.92</v>
       </c>
       <c r="H476" s="1">
-        <v>0.54</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15861,22 +15861,22 @@
         <v>983</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="D477" s="1">
         <v>0.07000000000000001</v>
       </c>
       <c r="E477" s="1">
-        <v>-0.73</v>
+        <v>-0.85</v>
       </c>
       <c r="F477" s="1">
-        <v>3</v>
+        <v>1.39</v>
       </c>
       <c r="G477" s="1">
-        <v>1.21</v>
+        <v>-1.01</v>
       </c>
       <c r="H477" s="1">
-        <v>-0.39</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15887,22 +15887,22 @@
         <v>984</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="D478" s="1">
         <v>0.07000000000000001</v>
       </c>
       <c r="E478" s="1">
-        <v>-0.85</v>
+        <v>-0.73</v>
       </c>
       <c r="F478" s="1">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="G478" s="1">
-        <v>-1.01</v>
+        <v>1.21</v>
       </c>
       <c r="H478" s="1">
-        <v>-0.15</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15939,22 +15939,22 @@
         <v>986</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D480" s="1">
         <v>0.06</v>
       </c>
       <c r="E480" s="1">
-        <v>-0.67</v>
+        <v>-1.07</v>
       </c>
       <c r="F480" s="1">
-        <v>-0.43</v>
+        <v>-0.48</v>
       </c>
       <c r="G480" s="1">
-        <v>-2.09</v>
+        <v>-1.63</v>
       </c>
       <c r="H480" s="1">
-        <v>-0.35</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15965,22 +15965,22 @@
         <v>987</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D481" s="1">
         <v>0.06</v>
       </c>
       <c r="E481" s="1">
-        <v>-1.03</v>
+        <v>-0.67</v>
       </c>
       <c r="F481" s="1">
-        <v>-0.8100000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="G481" s="1">
-        <v>-0.91</v>
+        <v>-2.09</v>
       </c>
       <c r="H481" s="1">
-        <v>-3</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15991,22 +15991,22 @@
         <v>988</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D482" s="1">
         <v>0.06</v>
       </c>
       <c r="E482" s="1">
-        <v>-0.6899999999999999</v>
+        <v>-1.03</v>
       </c>
       <c r="F482" s="1">
-        <v>-0.99</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G482" s="1">
-        <v>-1.91</v>
+        <v>-0.91</v>
       </c>
       <c r="H482" s="1">
-        <v>-1.14</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -16026,7 +16026,7 @@
         <v>-1.07</v>
       </c>
       <c r="F483" s="1">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="G483" s="1">
         <v>-1.4</v>
@@ -16043,22 +16043,22 @@
         <v>990</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D484" s="1">
         <v>0.06</v>
       </c>
       <c r="E484" s="1">
-        <v>-1.07</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F484" s="1">
-        <v>-0.48</v>
+        <v>-0.99</v>
       </c>
       <c r="G484" s="1">
-        <v>-1.63</v>
+        <v>-1.91</v>
       </c>
       <c r="H484" s="1">
-        <v>-2.06</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -16069,22 +16069,22 @@
         <v>991</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D485" s="1">
         <v>0.05</v>
       </c>
       <c r="E485" s="1">
-        <v>-0.8</v>
+        <v>-0.99</v>
       </c>
       <c r="F485" s="1">
-        <v>1.65</v>
+        <v>2.92</v>
       </c>
       <c r="G485" s="1">
-        <v>-0.31</v>
+        <v>0.63</v>
       </c>
       <c r="H485" s="1">
-        <v>-0.44</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -16095,22 +16095,22 @@
         <v>992</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D486" s="1">
         <v>0.05</v>
       </c>
       <c r="E486" s="1">
-        <v>-0.99</v>
+        <v>-1.07</v>
       </c>
       <c r="F486" s="1">
-        <v>2.92</v>
+        <v>-0.85</v>
       </c>
       <c r="G486" s="1">
-        <v>0.63</v>
+        <v>-1.45</v>
       </c>
       <c r="H486" s="1">
-        <v>-0.6899999999999999</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -16121,22 +16121,22 @@
         <v>993</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D487" s="1">
         <v>0.05</v>
       </c>
       <c r="E487" s="1">
-        <v>-1.07</v>
+        <v>-0.8</v>
       </c>
       <c r="F487" s="1">
-        <v>-0.85</v>
+        <v>1.65</v>
       </c>
       <c r="G487" s="1">
-        <v>-1.45</v>
+        <v>-0.31</v>
       </c>
       <c r="H487" s="1">
-        <v>-2.6</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -16147,22 +16147,22 @@
         <v>994</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D488" s="1">
         <v>0.05</v>
       </c>
       <c r="E488" s="1">
-        <v>-0.79</v>
+        <v>-0.99</v>
       </c>
       <c r="F488" s="1">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="G488" s="1">
-        <v>-0.6</v>
+        <v>-0.45</v>
       </c>
       <c r="H488" s="1">
-        <v>0.06</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -16199,22 +16199,22 @@
         <v>996</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D490" s="1">
         <v>0.05</v>
       </c>
       <c r="E490" s="1">
-        <v>-0.99</v>
+        <v>-0.79</v>
       </c>
       <c r="F490" s="1">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="G490" s="1">
-        <v>-0.45</v>
+        <v>-0.6</v>
       </c>
       <c r="H490" s="1">
-        <v>-0.65</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -16225,22 +16225,22 @@
         <v>997</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D491" s="1">
         <v>0.04</v>
       </c>
       <c r="E491" s="1">
-        <v>-0.98</v>
+        <v>-0.78</v>
       </c>
       <c r="F491" s="1">
-        <v>1.81</v>
+        <v>2.94</v>
       </c>
       <c r="G491" s="1">
-        <v>-0.59</v>
+        <v>0.6</v>
       </c>
       <c r="H491" s="1">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -16251,22 +16251,22 @@
         <v>998</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="D492" s="1">
         <v>0.04</v>
       </c>
       <c r="E492" s="1">
-        <v>-0.79</v>
+        <v>-0.88</v>
       </c>
       <c r="F492" s="1">
-        <v>2.97</v>
+        <v>1.15</v>
       </c>
       <c r="G492" s="1">
-        <v>0.6</v>
+        <v>-0.57</v>
       </c>
       <c r="H492" s="1">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -16277,22 +16277,22 @@
         <v>999</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="D493" s="1">
         <v>0.04</v>
       </c>
       <c r="E493" s="1">
-        <v>-0.88</v>
+        <v>-0.98</v>
       </c>
       <c r="F493" s="1">
-        <v>1.15</v>
+        <v>1.81</v>
       </c>
       <c r="G493" s="1">
-        <v>-0.57</v>
+        <v>-0.59</v>
       </c>
       <c r="H493" s="1">
-        <v>-0.93</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -16329,22 +16329,22 @@
         <v>1001</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D495" s="1">
         <v>0.03</v>
       </c>
       <c r="E495" s="1">
-        <v>-1.14</v>
+        <v>-0.63</v>
       </c>
       <c r="F495" s="1">
-        <v>-0.49</v>
+        <v>-1.5</v>
       </c>
       <c r="G495" s="1">
-        <v>-1.75</v>
+        <v>-1.61</v>
       </c>
       <c r="H495" s="1">
-        <v>-2.17</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -16381,22 +16381,22 @@
         <v>1003</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D497" s="1">
         <v>0.03</v>
       </c>
       <c r="E497" s="1">
-        <v>-0.63</v>
+        <v>-0.9</v>
       </c>
       <c r="F497" s="1">
-        <v>-1.51</v>
+        <v>2.94</v>
       </c>
       <c r="G497" s="1">
-        <v>-1.61</v>
+        <v>0.23</v>
       </c>
       <c r="H497" s="1">
-        <v>-1.79</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -16407,22 +16407,22 @@
         <v>1004</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="D498" s="1">
         <v>0.03</v>
       </c>
       <c r="E498" s="1">
-        <v>-0.9</v>
+        <v>-0.95</v>
       </c>
       <c r="F498" s="1">
-        <v>2.94</v>
+        <v>1.82</v>
       </c>
       <c r="G498" s="1">
-        <v>0.23</v>
+        <v>-0.31</v>
       </c>
       <c r="H498" s="1">
-        <v>0.02</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -16433,22 +16433,22 @@
         <v>1005</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D499" s="1">
         <v>0.03</v>
       </c>
       <c r="E499" s="1">
-        <v>-0.95</v>
+        <v>-1.17</v>
       </c>
       <c r="F499" s="1">
-        <v>1.82</v>
+        <v>2.82</v>
       </c>
       <c r="G499" s="1">
-        <v>-0.31</v>
+        <v>-0.89</v>
       </c>
       <c r="H499" s="1">
-        <v>-0.72</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -16459,22 +16459,22 @@
         <v>1006</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="D500" s="1">
         <v>0.03</v>
       </c>
       <c r="E500" s="1">
-        <v>-1.17</v>
+        <v>-1.21</v>
       </c>
       <c r="F500" s="1">
-        <v>2.82</v>
+        <v>2.99</v>
       </c>
       <c r="G500" s="1">
-        <v>-0.89</v>
+        <v>-0.41</v>
       </c>
       <c r="H500" s="1">
-        <v>0.21</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -16485,22 +16485,22 @@
         <v>1007</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D501" s="1">
         <v>0.03</v>
       </c>
       <c r="E501" s="1">
-        <v>-1.21</v>
+        <v>-1.14</v>
       </c>
       <c r="F501" s="1">
-        <v>2.99</v>
+        <v>-0.49</v>
       </c>
       <c r="G501" s="1">
-        <v>-0.41</v>
+        <v>-1.75</v>
       </c>
       <c r="H501" s="1">
-        <v>-0.23</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -16537,22 +16537,22 @@
         <v>1009</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D503" s="1">
         <v>0.02</v>
       </c>
       <c r="E503" s="1">
-        <v>-1.37</v>
+        <v>-1.29</v>
       </c>
       <c r="F503" s="1">
-        <v>3</v>
+        <v>0.42</v>
       </c>
       <c r="G503" s="1">
-        <v>-3</v>
+        <v>-2.14</v>
       </c>
       <c r="H503" s="1">
-        <v>1.89</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -16563,22 +16563,22 @@
         <v>1010</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D504" s="1">
         <v>0.02</v>
       </c>
       <c r="E504" s="1">
-        <v>-1.29</v>
+        <v>-1.37</v>
       </c>
       <c r="F504" s="1">
-        <v>0.42</v>
+        <v>3</v>
       </c>
       <c r="G504" s="1">
-        <v>-2.14</v>
+        <v>-3</v>
       </c>
       <c r="H504" s="1">
-        <v>-1.32</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -16589,19 +16589,19 @@
         <v>1011</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D505" s="1">
         <v>0.01</v>
       </c>
       <c r="E505" s="1">
-        <v>-1.16</v>
+        <v>-1.13</v>
       </c>
       <c r="F505" s="1">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="G505" s="1">
-        <v>-0.37</v>
+        <v>-0.93</v>
       </c>
       <c r="H505" s="1">
         <v>-0.12</v>
@@ -16615,19 +16615,19 @@
         <v>1012</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D506" s="1">
         <v>0.01</v>
       </c>
       <c r="E506" s="1">
-        <v>-1.13</v>
+        <v>-1.16</v>
       </c>
       <c r="F506" s="1">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="G506" s="1">
-        <v>-0.93</v>
+        <v>-0.37</v>
       </c>
       <c r="H506" s="1">
         <v>-0.12</v>
